--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_14_30.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_14_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1203477.830635301</v>
+        <v>1202800.009955031</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>313298.4515052318</v>
+        <v>313298.4515052316</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.451805854</v>
+        <v>632041.4518058547</v>
       </c>
     </row>
     <row r="9">
@@ -1367,22 +1367,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>107.5010219193906</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>23.6973812426011</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>122.0492982736043</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="G11" t="n">
-        <v>122.0492982736043</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1421,22 +1421,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>28.03643329293238</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>55.76720738385742</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>122.0492982736043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1452,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>117.6682934633407</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>122.0492982736043</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>20.56530653072792</v>
+        <v>55.56877269560392</v>
       </c>
       <c r="U12" t="n">
-        <v>42.84521610603971</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="V12" t="n">
-        <v>46.26644524054748</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="W12" t="n">
-        <v>72.32210790215683</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="X12" t="n">
-        <v>22.93043876461584</v>
+        <v>22.93043876461604</v>
       </c>
       <c r="Y12" t="n">
-        <v>29.00181045917085</v>
+        <v>29.00181045917105</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>8.831062059420464</v>
+        <v>8.831062059420656</v>
       </c>
       <c r="S13" t="n">
-        <v>40.97168601871258</v>
+        <v>40.97168601871277</v>
       </c>
       <c r="T13" t="n">
-        <v>29.358516861995</v>
+        <v>29.3585168619952</v>
       </c>
       <c r="U13" t="n">
-        <v>94.27381875013459</v>
+        <v>94.27381875013479</v>
       </c>
       <c r="V13" t="n">
-        <v>50.72653950959514</v>
+        <v>50.72653950959534</v>
       </c>
       <c r="W13" t="n">
-        <v>95.92823141448056</v>
+        <v>95.92823141448076</v>
       </c>
       <c r="X13" t="n">
-        <v>27.53697973338777</v>
+        <v>27.53697973338797</v>
       </c>
       <c r="Y13" t="n">
-        <v>22.75879713931366</v>
+        <v>22.75879713931386</v>
       </c>
     </row>
     <row r="14">
@@ -1604,19 +1604,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5.520205674735166</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>122.0492982736043</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>122.0492982736043</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>122.0492982736043</v>
+        <v>46.5745892848264</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>46.21360886079819</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>32.88999934163215</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>28.03643329293237</v>
       </c>
       <c r="U14" t="n">
-        <v>55.76720738385723</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>122.0492982736043</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>107.1657389737211</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1728,31 +1728,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>6.13658612126563</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>108.0709622111749</v>
       </c>
       <c r="T15" t="n">
-        <v>31.06786102034746</v>
+        <v>20.56530653072811</v>
       </c>
       <c r="U15" t="n">
-        <v>42.84521610603971</v>
+        <v>42.84521610603991</v>
       </c>
       <c r="V15" t="n">
-        <v>46.26644524054748</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="W15" t="n">
-        <v>72.32210790215683</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="X15" t="n">
-        <v>22.93043876461584</v>
+        <v>22.93043876461604</v>
       </c>
       <c r="Y15" t="n">
-        <v>29.00181045917085</v>
+        <v>29.00181045917105</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>8.831062059420464</v>
+        <v>8.831062059420656</v>
       </c>
       <c r="S16" t="n">
-        <v>40.97168601871258</v>
+        <v>40.97168601871277</v>
       </c>
       <c r="T16" t="n">
-        <v>29.358516861995</v>
+        <v>29.3585168619952</v>
       </c>
       <c r="U16" t="n">
-        <v>94.27381875013459</v>
+        <v>94.27381875013479</v>
       </c>
       <c r="V16" t="n">
-        <v>50.72653950959514</v>
+        <v>50.72653950959534</v>
       </c>
       <c r="W16" t="n">
-        <v>95.92823141448056</v>
+        <v>95.92823141448076</v>
       </c>
       <c r="X16" t="n">
-        <v>27.53697973338777</v>
+        <v>27.53697973338797</v>
       </c>
       <c r="Y16" t="n">
-        <v>22.75879713931366</v>
+        <v>22.75879713931386</v>
       </c>
     </row>
     <row r="17">
@@ -1847,10 +1847,10 @@
         <v>29.3257137720268</v>
       </c>
       <c r="D17" t="n">
-        <v>16.89237603307508</v>
+        <v>16.89237603307527</v>
       </c>
       <c r="E17" t="n">
-        <v>50.59912845248414</v>
+        <v>50.59912845248552</v>
       </c>
       <c r="F17" t="n">
         <v>82.31946603086146</v>
@@ -1923,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1935,16 +1935,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>55.56827688413843</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>122.0492982736043</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>51.93274503525225</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1965,13 +1965,13 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>6.13658612126563</v>
       </c>
       <c r="R18" t="n">
-        <v>122.0492982736043</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>122.0492982736043</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1980,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -1989,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>101.3644357981254</v>
       </c>
     </row>
     <row r="19">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>53.20745676868125</v>
+        <v>53.20745676868131</v>
       </c>
       <c r="C20" t="n">
-        <v>29.32571377202675</v>
+        <v>29.3257137720268</v>
       </c>
       <c r="D20" t="n">
-        <v>16.89237603307521</v>
+        <v>16.89237603307527</v>
       </c>
       <c r="E20" t="n">
-        <v>50.59912845248408</v>
+        <v>50.59912845248414</v>
       </c>
       <c r="F20" t="n">
-        <v>82.31946603086141</v>
+        <v>82.31946603086146</v>
       </c>
       <c r="G20" t="n">
-        <v>97.94765892927438</v>
+        <v>97.94765892927444</v>
       </c>
       <c r="H20" t="n">
-        <v>26.03172204233374</v>
+        <v>26.0317220423338</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>17.01668021661482</v>
+        <v>17.01668021661487</v>
       </c>
       <c r="X20" t="n">
-        <v>38.90293068555405</v>
+        <v>38.90293068555411</v>
       </c>
       <c r="Y20" t="n">
-        <v>61.40578380929782</v>
+        <v>61.40578380929787</v>
       </c>
     </row>
     <row r="21">
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="C21" t="n">
-        <v>107.5010219193907</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>122.0492982736044</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>122.0492982736044</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>122.0492982736044</v>
+        <v>107.501021919391</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>122.0492982736047</v>
       </c>
     </row>
     <row r="22">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>53.20745676868125</v>
+        <v>53.20745676868131</v>
       </c>
       <c r="C23" t="n">
-        <v>29.32571377202675</v>
+        <v>29.3257137720268</v>
       </c>
       <c r="D23" t="n">
-        <v>16.89237603307521</v>
+        <v>16.89237603307527</v>
       </c>
       <c r="E23" t="n">
-        <v>50.59912845248408</v>
+        <v>50.59912845248414</v>
       </c>
       <c r="F23" t="n">
-        <v>82.31946603086141</v>
+        <v>82.31946603086146</v>
       </c>
       <c r="G23" t="n">
-        <v>97.94765892927438</v>
+        <v>97.94765892927444</v>
       </c>
       <c r="H23" t="n">
-        <v>26.03172204233374</v>
+        <v>26.0317220423338</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2378,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>17.01668021661482</v>
+        <v>17.01668021661487</v>
       </c>
       <c r="X23" t="n">
-        <v>38.90293068555405</v>
+        <v>38.90293068555411</v>
       </c>
       <c r="Y23" t="n">
-        <v>61.40578380929782</v>
+        <v>61.40578380929787</v>
       </c>
     </row>
     <row r="24">
@@ -2394,13 +2394,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>122.0492982736042</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>122.0492982736042</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2439,28 +2439,28 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.136586121265651</v>
+        <v>6.13658612126563</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="V24" t="n">
-        <v>122.0492982736042</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>101.3644357981248</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>101.3644357981251</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2558,13 +2558,13 @@
         <v>137.2883401330385</v>
       </c>
       <c r="D26" t="n">
-        <v>124.855002394087</v>
+        <v>124.8550023940869</v>
       </c>
       <c r="E26" t="n">
         <v>158.5617548134958</v>
       </c>
       <c r="F26" t="n">
-        <v>190.2820923918732</v>
+        <v>190.2820923918731</v>
       </c>
       <c r="G26" t="n">
         <v>205.9102852902861</v>
@@ -2573,7 +2573,7 @@
         <v>133.9943484033455</v>
       </c>
       <c r="I26" t="n">
-        <v>27.67892728751264</v>
+        <v>27.67892728751258</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.35531776834641</v>
+        <v>14.35531776834638</v>
       </c>
       <c r="T26" t="n">
-        <v>9.501751719646629</v>
+        <v>9.501751719646599</v>
       </c>
       <c r="U26" t="n">
-        <v>37.23252581057167</v>
+        <v>37.23252581057164</v>
       </c>
       <c r="V26" t="n">
         <v>107.9626263610117</v>
       </c>
       <c r="W26" t="n">
-        <v>124.9793065776266</v>
+        <v>124.9793065776265</v>
       </c>
       <c r="X26" t="n">
         <v>146.8655570465658</v>
       </c>
       <c r="Y26" t="n">
-        <v>169.3684101703096</v>
+        <v>169.3684101703095</v>
       </c>
     </row>
     <row r="27">
@@ -2637,13 +2637,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>38.84074557279988</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>51.93274503525225</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2676,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>6.13658612126563</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -2685,22 +2685,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>2.030624957442362</v>
+        <v>214.9477822055827</v>
       </c>
       <c r="U27" t="n">
-        <v>24.31053453275416</v>
+        <v>24.31053453275413</v>
       </c>
       <c r="V27" t="n">
-        <v>27.73176366726193</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
-        <v>266.7045835770116</v>
+        <v>53.78742632887125</v>
       </c>
       <c r="X27" t="n">
-        <v>4.39575719133029</v>
+        <v>4.395757191330262</v>
       </c>
       <c r="Y27" t="n">
-        <v>10.4671288858853</v>
+        <v>212.8378870842599</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>22.43700444542703</v>
+        <v>22.437004445427</v>
       </c>
       <c r="T28" t="n">
-        <v>10.82383528870945</v>
+        <v>10.82383528870942</v>
       </c>
       <c r="U28" t="n">
-        <v>75.73913717684904</v>
+        <v>75.73913717684901</v>
       </c>
       <c r="V28" t="n">
-        <v>32.19185793630959</v>
+        <v>32.19185793630956</v>
       </c>
       <c r="W28" t="n">
-        <v>77.39354984119501</v>
+        <v>77.39354984119498</v>
       </c>
       <c r="X28" t="n">
-        <v>9.002298160102214</v>
+        <v>9.002298160102185</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.224115566028104</v>
+        <v>4.224115566028075</v>
       </c>
     </row>
     <row r="29">
@@ -2795,13 +2795,13 @@
         <v>137.2883401330385</v>
       </c>
       <c r="D29" t="n">
-        <v>124.855002394087</v>
+        <v>124.8550023940869</v>
       </c>
       <c r="E29" t="n">
         <v>158.5617548134958</v>
       </c>
       <c r="F29" t="n">
-        <v>190.2820923918732</v>
+        <v>190.2820923918731</v>
       </c>
       <c r="G29" t="n">
         <v>205.9102852902861</v>
@@ -2810,7 +2810,7 @@
         <v>133.9943484033455</v>
       </c>
       <c r="I29" t="n">
-        <v>27.67892728751264</v>
+        <v>27.67892728751258</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.35531776834642</v>
+        <v>14.35531776834637</v>
       </c>
       <c r="T29" t="n">
-        <v>9.50175171964662</v>
+        <v>9.501751719646592</v>
       </c>
       <c r="U29" t="n">
-        <v>37.23252581057167</v>
+        <v>37.23252581057164</v>
       </c>
       <c r="V29" t="n">
         <v>107.9626263610117</v>
       </c>
       <c r="W29" t="n">
-        <v>124.9793065776266</v>
+        <v>124.9793065776265</v>
       </c>
       <c r="X29" t="n">
         <v>146.8655570465658</v>
       </c>
       <c r="Y29" t="n">
-        <v>169.3684101703096</v>
+        <v>169.3684101703095</v>
       </c>
     </row>
     <row r="30">
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2877,7 +2877,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2913,28 +2913,28 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>6.13658612126563</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>66.70984920904964</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>214.9477822055827</v>
+        <v>2.030624957442333</v>
       </c>
       <c r="U30" t="n">
-        <v>232.8178788523939</v>
+        <v>24.31053453275413</v>
       </c>
       <c r="V30" t="n">
-        <v>27.73176366726193</v>
+        <v>27.7317636672619</v>
       </c>
       <c r="W30" t="n">
-        <v>53.78742632887128</v>
+        <v>53.78742632887125</v>
       </c>
       <c r="X30" t="n">
-        <v>4.39575719133029</v>
+        <v>4.395757191330262</v>
       </c>
       <c r="Y30" t="n">
         <v>223.3842861340256</v>
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>22.43700444542703</v>
+        <v>22.437004445427</v>
       </c>
       <c r="T31" t="n">
-        <v>10.82383528870945</v>
+        <v>10.82383528870942</v>
       </c>
       <c r="U31" t="n">
-        <v>75.73913717684904</v>
+        <v>75.73913717684901</v>
       </c>
       <c r="V31" t="n">
-        <v>32.19185793630959</v>
+        <v>32.19185793630956</v>
       </c>
       <c r="W31" t="n">
-        <v>77.39354984119501</v>
+        <v>77.39354984119498</v>
       </c>
       <c r="X31" t="n">
-        <v>9.002298160102214</v>
+        <v>9.002298160102185</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.224115566028104</v>
+        <v>4.224115566028075</v>
       </c>
     </row>
     <row r="32">
@@ -3108,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>74.14400670476476</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3117,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3153,25 +3153,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>134.3633376148752</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>214.9477822055827</v>
+        <v>2.030624957442361</v>
       </c>
       <c r="U33" t="n">
         <v>24.31053453275416</v>
       </c>
       <c r="V33" t="n">
-        <v>27.73176366726193</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W33" t="n">
         <v>53.78742632887128</v>
       </c>
       <c r="X33" t="n">
-        <v>79.47866811481639</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y33" t="n">
         <v>10.4671288858853</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>125.9940064659682</v>
+        <v>125.9940064659681</v>
       </c>
       <c r="C35" t="n">
-        <v>102.1122634693137</v>
+        <v>102.1122634693136</v>
       </c>
       <c r="D35" t="n">
-        <v>89.67892573036218</v>
+        <v>89.67892573036204</v>
       </c>
       <c r="E35" t="n">
-        <v>123.3856781497711</v>
+        <v>123.3856781497709</v>
       </c>
       <c r="F35" t="n">
-        <v>155.1060157281484</v>
+        <v>155.1060157281482</v>
       </c>
       <c r="G35" t="n">
-        <v>170.7342086265614</v>
+        <v>170.7342086265612</v>
       </c>
       <c r="H35" t="n">
-        <v>98.81827173962071</v>
+        <v>98.81827173962057</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.056449146846887</v>
+        <v>2.056449146846745</v>
       </c>
       <c r="V35" t="n">
-        <v>72.78654969728692</v>
+        <v>72.78654969728677</v>
       </c>
       <c r="W35" t="n">
-        <v>89.80322991390179</v>
+        <v>89.80322991390165</v>
       </c>
       <c r="X35" t="n">
-        <v>111.689480382841</v>
+        <v>111.6894803828409</v>
       </c>
       <c r="Y35" t="n">
-        <v>134.1923335065848</v>
+        <v>134.1923335065846</v>
       </c>
     </row>
     <row r="36">
@@ -3342,10 +3342,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>158.3762375619879</v>
       </c>
       <c r="C36" t="n">
-        <v>86.35741729507372</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3387,10 +3387,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>6.136586121265633</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>134.3633376148752</v>
       </c>
       <c r="S36" t="n">
         <v>191.4841495043256</v>
@@ -3399,19 +3399,19 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>237.2276917808945</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>18.61134966514649</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>40.56306051312425</v>
+        <v>40.56306051312411</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>42.21747317747023</v>
+        <v>42.21747317747008</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>125.9940064659682</v>
+        <v>125.9940064659681</v>
       </c>
       <c r="C38" t="n">
-        <v>102.1122634693137</v>
+        <v>102.1122634693136</v>
       </c>
       <c r="D38" t="n">
-        <v>89.67892573036218</v>
+        <v>89.67892573036204</v>
       </c>
       <c r="E38" t="n">
-        <v>123.3856781497711</v>
+        <v>123.3856781497709</v>
       </c>
       <c r="F38" t="n">
-        <v>155.1060157281484</v>
+        <v>155.1060157281482</v>
       </c>
       <c r="G38" t="n">
-        <v>170.7342086265614</v>
+        <v>170.7342086265612</v>
       </c>
       <c r="H38" t="n">
-        <v>98.81827173962071</v>
+        <v>98.81827173962057</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.056449146846887</v>
+        <v>2.056449146846745</v>
       </c>
       <c r="V38" t="n">
-        <v>72.78654969728692</v>
+        <v>72.78654969728677</v>
       </c>
       <c r="W38" t="n">
-        <v>89.80322991390179</v>
+        <v>89.80322991390165</v>
       </c>
       <c r="X38" t="n">
-        <v>111.689480382841</v>
+        <v>111.6894803828409</v>
       </c>
       <c r="Y38" t="n">
-        <v>134.1923335065848</v>
+        <v>134.1923335065846</v>
       </c>
     </row>
     <row r="39">
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>32.04825069471156</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3594,7 +3594,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>148.7388631915159</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3624,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>6.136586121265633</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -3633,19 +3633,19 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>195.6512726856672</v>
+        <v>214.9477822055827</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>237.2276917808945</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>18.61134966514649</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>40.56306051312425</v>
+        <v>40.56306051312411</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>42.21747317747023</v>
+        <v>42.21747317747008</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3816,10 +3816,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>51.93274503525224</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3867,10 +3867,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>74.10608346542125</v>
+        <v>191.4841495043256</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>58.22724038272665</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3879,7 +3879,7 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>26.10849904135867</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -4040,7 +4040,7 @@
         <v>97.30037929011397</v>
       </c>
       <c r="X44" t="n">
-        <v>119.1866297590531</v>
+        <v>119.1866297590532</v>
       </c>
       <c r="Y44" t="n">
         <v>141.689482882797</v>
@@ -4053,22 +4053,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>94.95075499315855</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>127.7660170016413</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>148.7388631915159</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4077,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>51.93274503525224</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4098,13 +4098,13 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>6.136586121265626</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>191.4841495043256</v>
       </c>
       <c r="T45" t="n">
         <v>214.9477822055827</v>
@@ -4122,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>256.3281827984628</v>
+        <v>156.982812060076</v>
       </c>
       <c r="C11" t="n">
-        <v>256.3281827984628</v>
+        <v>156.982812060076</v>
       </c>
       <c r="D11" t="n">
-        <v>256.3281827984628</v>
+        <v>133.0460633301759</v>
       </c>
       <c r="E11" t="n">
-        <v>256.3281827984628</v>
+        <v>133.0460633301759</v>
       </c>
       <c r="F11" t="n">
-        <v>133.0460633301756</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="G11" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="H11" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="I11" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="J11" t="n">
-        <v>127.09041603444</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="K11" t="n">
-        <v>127.09041603444</v>
+        <v>130.592749152757</v>
       </c>
       <c r="L11" t="n">
-        <v>210.5290716135007</v>
+        <v>178.9899996397443</v>
       </c>
       <c r="M11" t="n">
-        <v>331.3578769043689</v>
+        <v>261.7172256428613</v>
       </c>
       <c r="N11" t="n">
-        <v>452.1866821952372</v>
+        <v>338.9406286343661</v>
       </c>
       <c r="O11" t="n">
-        <v>488.1971930944173</v>
+        <v>459.7694339252348</v>
       </c>
       <c r="P11" t="n">
-        <v>488.1971930944173</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="Q11" t="n">
-        <v>488.1971930944173</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="R11" t="n">
-        <v>488.1971930944173</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="S11" t="n">
-        <v>488.1971930944173</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="T11" t="n">
-        <v>488.1971930944173</v>
+        <v>459.8775635055981</v>
       </c>
       <c r="U11" t="n">
-        <v>488.1971930944173</v>
+        <v>403.5470509966513</v>
       </c>
       <c r="V11" t="n">
-        <v>488.1971930944173</v>
+        <v>280.2649315283637</v>
       </c>
       <c r="W11" t="n">
-        <v>488.1971930944173</v>
+        <v>156.982812060076</v>
       </c>
       <c r="X11" t="n">
-        <v>488.1971930944173</v>
+        <v>156.982812060076</v>
       </c>
       <c r="Y11" t="n">
-        <v>364.9150736261302</v>
+        <v>156.982812060076</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>128.6208059460709</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="C12" t="n">
-        <v>128.6208059460709</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="D12" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="E12" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="F12" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="G12" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="H12" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="I12" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="J12" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="K12" t="n">
-        <v>43.26205739618831</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="L12" t="n">
-        <v>161.8290993236936</v>
+        <v>128.3309857893937</v>
       </c>
       <c r="M12" t="n">
-        <v>161.8290993236936</v>
+        <v>249.1597910802624</v>
       </c>
       <c r="N12" t="n">
-        <v>282.6579046145619</v>
+        <v>369.988596371131</v>
       </c>
       <c r="O12" t="n">
-        <v>403.4867099054302</v>
+        <v>403.4867099054315</v>
       </c>
       <c r="P12" t="n">
-        <v>488.1971930944173</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="Q12" t="n">
-        <v>488.1971930944173</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="R12" t="n">
-        <v>364.9150736261302</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="S12" t="n">
-        <v>364.9150736261302</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="T12" t="n">
-        <v>344.142036726405</v>
+        <v>432.0671196645158</v>
       </c>
       <c r="U12" t="n">
-        <v>300.8640406596982</v>
+        <v>308.7850001962282</v>
       </c>
       <c r="V12" t="n">
-        <v>254.1302575884381</v>
+        <v>185.5028807279407</v>
       </c>
       <c r="W12" t="n">
-        <v>181.0776233438352</v>
+        <v>62.22076125965312</v>
       </c>
       <c r="X12" t="n">
-        <v>157.9155639856374</v>
+        <v>39.05870190145509</v>
       </c>
       <c r="Y12" t="n">
-        <v>128.6208059460709</v>
+        <v>9.763943861888375</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9.763943861888347</v>
+        <v>26.36184332167598</v>
       </c>
       <c r="C13" t="n">
-        <v>9.763943861888347</v>
+        <v>26.36184332167598</v>
       </c>
       <c r="D13" t="n">
-        <v>9.763943861888347</v>
+        <v>26.36184332167598</v>
       </c>
       <c r="E13" t="n">
-        <v>9.763943861888347</v>
+        <v>78.54111443967925</v>
       </c>
       <c r="F13" t="n">
-        <v>9.763943861888347</v>
+        <v>78.54111443967925</v>
       </c>
       <c r="G13" t="n">
-        <v>9.763943861888347</v>
+        <v>93.05333587717703</v>
       </c>
       <c r="H13" t="n">
-        <v>38.07880775877479</v>
+        <v>93.05333587717703</v>
       </c>
       <c r="I13" t="n">
-        <v>38.07880775877479</v>
+        <v>122.4308499427887</v>
       </c>
       <c r="J13" t="n">
-        <v>111.8171443995684</v>
+        <v>196.1691865835822</v>
       </c>
       <c r="K13" t="n">
-        <v>111.8171443995684</v>
+        <v>196.1691865835822</v>
       </c>
       <c r="L13" t="n">
-        <v>111.8171443995684</v>
+        <v>196.1691865835822</v>
       </c>
       <c r="M13" t="n">
-        <v>111.8171443995684</v>
+        <v>196.1691865835822</v>
       </c>
       <c r="N13" t="n">
-        <v>232.6459496904367</v>
+        <v>196.1691865835822</v>
       </c>
       <c r="O13" t="n">
-        <v>263.0620390629794</v>
+        <v>196.1691865835822</v>
       </c>
       <c r="P13" t="n">
-        <v>383.8908443538477</v>
+        <v>316.9979918744508</v>
       </c>
       <c r="Q13" t="n">
-        <v>383.8908443538477</v>
+        <v>383.8908443538493</v>
       </c>
       <c r="R13" t="n">
-        <v>374.9705796473623</v>
+        <v>374.9705796473638</v>
       </c>
       <c r="S13" t="n">
-        <v>333.5850382143194</v>
+        <v>333.5850382143206</v>
       </c>
       <c r="T13" t="n">
-        <v>303.9299706769507</v>
+        <v>303.9299706769517</v>
       </c>
       <c r="U13" t="n">
-        <v>208.7038911313602</v>
+        <v>208.703891131361</v>
       </c>
       <c r="V13" t="n">
-        <v>157.4649623337893</v>
+        <v>157.46496233379</v>
       </c>
       <c r="W13" t="n">
-        <v>60.56775888481909</v>
+        <v>60.56775888481951</v>
       </c>
       <c r="X13" t="n">
-        <v>32.75262784099306</v>
+        <v>32.75262784099328</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888375</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>426.2907152574553</v>
+        <v>180.0911030118188</v>
       </c>
       <c r="C14" t="n">
-        <v>303.0085957891681</v>
+        <v>180.0911030118188</v>
       </c>
       <c r="D14" t="n">
-        <v>179.7264763208808</v>
+        <v>56.80898354353121</v>
       </c>
       <c r="E14" t="n">
-        <v>179.7264763208808</v>
+        <v>56.80898354353121</v>
       </c>
       <c r="F14" t="n">
-        <v>56.44435685259359</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="G14" t="n">
-        <v>56.44435685259359</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="H14" t="n">
-        <v>56.44435685259359</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="I14" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="J14" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="K14" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="L14" t="n">
-        <v>58.16119434887561</v>
+        <v>58.1611943488757</v>
       </c>
       <c r="M14" t="n">
-        <v>178.9899996397439</v>
+        <v>178.9899996397443</v>
       </c>
       <c r="N14" t="n">
-        <v>256.2134026312488</v>
+        <v>299.8188049306129</v>
       </c>
       <c r="O14" t="n">
-        <v>377.042207922117</v>
+        <v>335.8293158297931</v>
       </c>
       <c r="P14" t="n">
-        <v>383.4259843956301</v>
+        <v>456.6581211206617</v>
       </c>
       <c r="Q14" t="n">
-        <v>488.1971930944173</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="R14" t="n">
-        <v>488.1971930944173</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="S14" t="n">
-        <v>488.1971930944173</v>
+        <v>454.9749715372145</v>
       </c>
       <c r="T14" t="n">
-        <v>488.1971930944173</v>
+        <v>426.6553419483939</v>
       </c>
       <c r="U14" t="n">
-        <v>431.8666805854706</v>
+        <v>426.6553419483939</v>
       </c>
       <c r="V14" t="n">
-        <v>431.8666805854706</v>
+        <v>303.3732224801063</v>
       </c>
       <c r="W14" t="n">
-        <v>431.8666805854706</v>
+        <v>180.0911030118188</v>
       </c>
       <c r="X14" t="n">
-        <v>431.8666805854706</v>
+        <v>180.0911030118188</v>
       </c>
       <c r="Y14" t="n">
-        <v>431.8666805854706</v>
+        <v>180.0911030118188</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>118.0121650474652</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="C15" t="n">
-        <v>118.0121650474652</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="D15" t="n">
-        <v>118.0121650474652</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="E15" t="n">
-        <v>118.0121650474652</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="F15" t="n">
-        <v>118.0121650474652</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="G15" t="n">
-        <v>118.0121650474652</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="H15" t="n">
-        <v>118.0121650474652</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="I15" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="J15" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="K15" t="n">
-        <v>43.26205739618831</v>
+        <v>48.64509028167978</v>
       </c>
       <c r="L15" t="n">
-        <v>161.8290993236936</v>
+        <v>167.2121322091851</v>
       </c>
       <c r="M15" t="n">
-        <v>161.8290993236936</v>
+        <v>288.0409375000538</v>
       </c>
       <c r="N15" t="n">
-        <v>282.6579046145619</v>
+        <v>288.0409375000538</v>
       </c>
       <c r="O15" t="n">
-        <v>403.4867099054302</v>
+        <v>408.8697427909224</v>
       </c>
       <c r="P15" t="n">
-        <v>488.1971930944173</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="Q15" t="n">
-        <v>488.1971930944173</v>
+        <v>481.9986212547565</v>
       </c>
       <c r="R15" t="n">
-        <v>488.1971930944173</v>
+        <v>481.9986212547565</v>
       </c>
       <c r="S15" t="n">
-        <v>488.1971930944173</v>
+        <v>372.8360331626606</v>
       </c>
       <c r="T15" t="n">
-        <v>456.8155152960866</v>
+        <v>352.0629962629352</v>
       </c>
       <c r="U15" t="n">
-        <v>413.5375192293798</v>
+        <v>308.7850001962282</v>
       </c>
       <c r="V15" t="n">
-        <v>366.8037361581197</v>
+        <v>185.5028807279407</v>
       </c>
       <c r="W15" t="n">
-        <v>293.7511019135168</v>
+        <v>62.22076125965312</v>
       </c>
       <c r="X15" t="n">
-        <v>270.589042555319</v>
+        <v>39.05870190145509</v>
       </c>
       <c r="Y15" t="n">
-        <v>241.2942845157525</v>
+        <v>9.763943861888375</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="C16" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="D16" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="E16" t="n">
-        <v>9.763943861888347</v>
+        <v>61.94321497989165</v>
       </c>
       <c r="F16" t="n">
-        <v>9.763943861888347</v>
+        <v>116.8442525017355</v>
       </c>
       <c r="G16" t="n">
-        <v>9.763943861888347</v>
+        <v>142.2332337721121</v>
       </c>
       <c r="H16" t="n">
-        <v>21.40442848124285</v>
+        <v>142.2332337721121</v>
       </c>
       <c r="I16" t="n">
-        <v>21.40442848124285</v>
+        <v>142.2332337721121</v>
       </c>
       <c r="J16" t="n">
-        <v>21.40442848124285</v>
+        <v>142.2332337721121</v>
       </c>
       <c r="K16" t="n">
-        <v>142.2332337721111</v>
+        <v>142.2332337721121</v>
       </c>
       <c r="L16" t="n">
-        <v>142.2332337721111</v>
+        <v>142.2332337721121</v>
       </c>
       <c r="M16" t="n">
-        <v>142.2332337721111</v>
+        <v>263.0620390629807</v>
       </c>
       <c r="N16" t="n">
-        <v>263.0620390629794</v>
+        <v>263.0620390629807</v>
       </c>
       <c r="O16" t="n">
-        <v>263.0620390629794</v>
+        <v>383.8908443538493</v>
       </c>
       <c r="P16" t="n">
-        <v>383.8908443538477</v>
+        <v>383.8908443538493</v>
       </c>
       <c r="Q16" t="n">
-        <v>383.8908443538477</v>
+        <v>383.8908443538493</v>
       </c>
       <c r="R16" t="n">
-        <v>374.9705796473623</v>
+        <v>374.9705796473638</v>
       </c>
       <c r="S16" t="n">
-        <v>333.5850382143194</v>
+        <v>333.5850382143206</v>
       </c>
       <c r="T16" t="n">
-        <v>303.9299706769507</v>
+        <v>303.9299706769517</v>
       </c>
       <c r="U16" t="n">
-        <v>208.7038911313602</v>
+        <v>208.703891131361</v>
       </c>
       <c r="V16" t="n">
-        <v>157.4649623337893</v>
+        <v>157.46496233379</v>
       </c>
       <c r="W16" t="n">
-        <v>60.56775888481909</v>
+        <v>60.56775888481951</v>
       </c>
       <c r="X16" t="n">
-        <v>32.75262784099306</v>
+        <v>32.75262784099328</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888375</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>315.9417875589143</v>
+        <v>315.9417875589158</v>
       </c>
       <c r="C17" t="n">
-        <v>286.3198544558568</v>
+        <v>286.3198544558585</v>
       </c>
       <c r="D17" t="n">
-        <v>269.2568483618415</v>
+        <v>269.2568483618431</v>
       </c>
       <c r="E17" t="n">
-        <v>218.1466176017566</v>
+        <v>218.1466176017567</v>
       </c>
       <c r="F17" t="n">
-        <v>134.9956418130076</v>
+        <v>134.9956418130078</v>
       </c>
       <c r="G17" t="n">
-        <v>36.05861259151845</v>
+        <v>36.05861259151848</v>
       </c>
       <c r="H17" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="I17" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="J17" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="K17" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="L17" t="n">
-        <v>58.16119434887561</v>
+        <v>58.1611943488757</v>
       </c>
       <c r="M17" t="n">
-        <v>140.8884203519925</v>
+        <v>140.8884203519926</v>
       </c>
       <c r="N17" t="n">
-        <v>218.1118233434973</v>
+        <v>218.1118233434975</v>
       </c>
       <c r="O17" t="n">
-        <v>338.9406286343656</v>
+        <v>254.1223342426777</v>
       </c>
       <c r="P17" t="n">
-        <v>338.9406286343656</v>
+        <v>298.0496916927286</v>
       </c>
       <c r="Q17" t="n">
-        <v>338.9406286343656</v>
+        <v>298.0496916927286</v>
       </c>
       <c r="R17" t="n">
-        <v>338.9406286343656</v>
+        <v>298.0496916927286</v>
       </c>
       <c r="S17" t="n">
-        <v>390.7209271994659</v>
+        <v>390.7209271994673</v>
       </c>
       <c r="T17" t="n">
-        <v>488.1971930944173</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="U17" t="n">
-        <v>488.1971930944173</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="V17" t="n">
-        <v>488.1971930944173</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="W17" t="n">
-        <v>471.0086272190489</v>
+        <v>471.0086272190503</v>
       </c>
       <c r="X17" t="n">
-        <v>431.7127376376811</v>
+        <v>431.7127376376825</v>
       </c>
       <c r="Y17" t="n">
-        <v>369.6866933858651</v>
+        <v>369.6866933858664</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>241.6329541578429</v>
+        <v>133.0460633301759</v>
       </c>
       <c r="C18" t="n">
-        <v>241.6329541578429</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="D18" t="n">
-        <v>241.6329541578429</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="E18" t="n">
-        <v>241.6329541578429</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="F18" t="n">
-        <v>241.6329541578429</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="G18" t="n">
-        <v>185.5033815476021</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="H18" t="n">
-        <v>62.22126207931487</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="I18" t="n">
-        <v>62.22126207931487</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="J18" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="K18" t="n">
-        <v>9.763943861888347</v>
+        <v>48.64509028167978</v>
       </c>
       <c r="L18" t="n">
-        <v>128.3309857893937</v>
+        <v>167.2121322091851</v>
       </c>
       <c r="M18" t="n">
-        <v>249.159791080262</v>
+        <v>288.0409375000538</v>
       </c>
       <c r="N18" t="n">
-        <v>282.6579046145619</v>
+        <v>408.8697427909224</v>
       </c>
       <c r="O18" t="n">
-        <v>403.4867099054302</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="P18" t="n">
-        <v>488.1971930944173</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="Q18" t="n">
-        <v>488.1971930944173</v>
+        <v>481.9986212547565</v>
       </c>
       <c r="R18" t="n">
-        <v>364.9150736261302</v>
+        <v>481.9986212547565</v>
       </c>
       <c r="S18" t="n">
-        <v>241.6329541578429</v>
+        <v>358.7165017864689</v>
       </c>
       <c r="T18" t="n">
-        <v>241.6329541578429</v>
+        <v>358.7165017864689</v>
       </c>
       <c r="U18" t="n">
-        <v>241.6329541578429</v>
+        <v>358.7165017864689</v>
       </c>
       <c r="V18" t="n">
-        <v>241.6329541578429</v>
+        <v>235.4343823181814</v>
       </c>
       <c r="W18" t="n">
-        <v>241.6329541578429</v>
+        <v>235.4343823181814</v>
       </c>
       <c r="X18" t="n">
-        <v>241.6329541578429</v>
+        <v>235.4343823181814</v>
       </c>
       <c r="Y18" t="n">
-        <v>241.6329541578429</v>
+        <v>133.0460633301759</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="C19" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="D19" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="E19" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="F19" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="G19" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="H19" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="I19" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="J19" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="K19" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="L19" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="M19" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="N19" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="O19" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="P19" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="Q19" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="R19" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="S19" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="T19" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="U19" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="V19" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="W19" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="X19" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888375</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>315.9417875589146</v>
+        <v>315.9417875589156</v>
       </c>
       <c r="C20" t="n">
-        <v>286.3198544558573</v>
+        <v>286.3198544558581</v>
       </c>
       <c r="D20" t="n">
-        <v>269.2568483618419</v>
+        <v>269.2568483618427</v>
       </c>
       <c r="E20" t="n">
-        <v>218.146617601757</v>
+        <v>218.1466176017575</v>
       </c>
       <c r="F20" t="n">
-        <v>134.9956418130081</v>
+        <v>134.9956418130085</v>
       </c>
       <c r="G20" t="n">
-        <v>36.05861259151839</v>
+        <v>36.05861259151848</v>
       </c>
       <c r="H20" t="n">
-        <v>9.763943861888349</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="I20" t="n">
-        <v>9.763943861888349</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="J20" t="n">
-        <v>9.763943861888349</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="K20" t="n">
-        <v>9.763943861888349</v>
+        <v>130.592749152757</v>
       </c>
       <c r="L20" t="n">
-        <v>58.16119434887562</v>
+        <v>178.9899996397443</v>
       </c>
       <c r="M20" t="n">
-        <v>178.9899996397439</v>
+        <v>261.7172256428613</v>
       </c>
       <c r="N20" t="n">
-        <v>256.2134026312488</v>
+        <v>338.9406286343661</v>
       </c>
       <c r="O20" t="n">
-        <v>292.2239135304289</v>
+        <v>374.9511395335463</v>
       </c>
       <c r="P20" t="n">
-        <v>320.6981276545303</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="Q20" t="n">
-        <v>320.6981276545303</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="R20" t="n">
-        <v>320.6981276545303</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="S20" t="n">
-        <v>320.6981276545303</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="T20" t="n">
-        <v>418.1743935494817</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="U20" t="n">
-        <v>488.1971930944174</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="V20" t="n">
-        <v>488.1971930944175</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="W20" t="n">
-        <v>471.008627219049</v>
+        <v>471.0086272190501</v>
       </c>
       <c r="X20" t="n">
-        <v>431.7127376376813</v>
+        <v>431.7127376376825</v>
       </c>
       <c r="Y20" t="n">
-        <v>369.6866933858653</v>
+        <v>369.6866933858664</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>364.9150736261302</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="C21" t="n">
-        <v>256.3281827984628</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="D21" t="n">
-        <v>133.0460633301756</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="E21" t="n">
-        <v>9.763943861888349</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="F21" t="n">
-        <v>9.763943861888349</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="G21" t="n">
-        <v>9.763943861888349</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="H21" t="n">
-        <v>9.763943861888349</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="I21" t="n">
-        <v>9.763943861888349</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="J21" t="n">
-        <v>9.763943861888349</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="K21" t="n">
-        <v>48.64509028167973</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="L21" t="n">
-        <v>48.64509028167973</v>
+        <v>128.3309857893937</v>
       </c>
       <c r="M21" t="n">
-        <v>161.8290993236936</v>
+        <v>249.1597910802624</v>
       </c>
       <c r="N21" t="n">
-        <v>282.6579046145619</v>
+        <v>369.988596371131</v>
       </c>
       <c r="O21" t="n">
-        <v>403.4867099054302</v>
+        <v>403.4867099054315</v>
       </c>
       <c r="P21" t="n">
-        <v>488.1971930944174</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="Q21" t="n">
-        <v>488.1971930944174</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="R21" t="n">
-        <v>488.1971930944174</v>
+        <v>364.9150736261312</v>
       </c>
       <c r="S21" t="n">
-        <v>488.1971930944174</v>
+        <v>364.9150736261312</v>
       </c>
       <c r="T21" t="n">
-        <v>488.1971930944174</v>
+        <v>364.9150736261312</v>
       </c>
       <c r="U21" t="n">
-        <v>488.1971930944174</v>
+        <v>364.9150736261312</v>
       </c>
       <c r="V21" t="n">
-        <v>488.1971930944174</v>
+        <v>364.9150736261312</v>
       </c>
       <c r="W21" t="n">
-        <v>488.1971930944174</v>
+        <v>364.9150736261312</v>
       </c>
       <c r="X21" t="n">
-        <v>364.9150736261302</v>
+        <v>256.3281827984635</v>
       </c>
       <c r="Y21" t="n">
-        <v>364.9150736261302</v>
+        <v>133.0460633301759</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>9.763943861888349</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="C22" t="n">
-        <v>9.763943861888349</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="D22" t="n">
-        <v>9.763943861888349</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="E22" t="n">
-        <v>9.763943861888349</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="F22" t="n">
-        <v>9.763943861888349</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="G22" t="n">
-        <v>9.763943861888349</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="H22" t="n">
-        <v>9.763943861888349</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="I22" t="n">
-        <v>9.763943861888349</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="J22" t="n">
-        <v>9.763943861888349</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="K22" t="n">
-        <v>9.763943861888349</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="L22" t="n">
-        <v>9.763943861888349</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="M22" t="n">
-        <v>9.763943861888349</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="N22" t="n">
-        <v>9.763943861888349</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="O22" t="n">
-        <v>9.763943861888349</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="P22" t="n">
-        <v>9.763943861888349</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="Q22" t="n">
-        <v>9.763943861888349</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="R22" t="n">
-        <v>9.763943861888349</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="S22" t="n">
-        <v>9.763943861888349</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="T22" t="n">
-        <v>9.763943861888349</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="U22" t="n">
-        <v>9.763943861888349</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="V22" t="n">
-        <v>9.763943861888349</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="W22" t="n">
-        <v>9.763943861888349</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="X22" t="n">
-        <v>9.763943861888349</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="Y22" t="n">
-        <v>9.763943861888349</v>
+        <v>9.763943861888375</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>315.9417875589135</v>
+        <v>315.9417875589145</v>
       </c>
       <c r="C23" t="n">
-        <v>286.3198544558564</v>
+        <v>286.3198544558571</v>
       </c>
       <c r="D23" t="n">
-        <v>269.2568483618409</v>
+        <v>269.2568483618417</v>
       </c>
       <c r="E23" t="n">
-        <v>218.146617601756</v>
+        <v>218.1466176017568</v>
       </c>
       <c r="F23" t="n">
-        <v>134.9956418130071</v>
+        <v>134.9956418130078</v>
       </c>
       <c r="G23" t="n">
-        <v>36.05861259151838</v>
+        <v>36.05861259151845</v>
       </c>
       <c r="H23" t="n">
-        <v>9.763943861888334</v>
+        <v>9.763943861888352</v>
       </c>
       <c r="I23" t="n">
-        <v>9.763943861888334</v>
+        <v>9.763943861888352</v>
       </c>
       <c r="J23" t="n">
-        <v>76.33973727374047</v>
+        <v>9.763943861888352</v>
       </c>
       <c r="K23" t="n">
-        <v>76.33973727374047</v>
+        <v>9.763943861888352</v>
       </c>
       <c r="L23" t="n">
-        <v>124.7369877607277</v>
+        <v>58.16119434887568</v>
       </c>
       <c r="M23" t="n">
-        <v>207.4642137638446</v>
+        <v>140.8884203519926</v>
       </c>
       <c r="N23" t="n">
-        <v>284.6876167553494</v>
+        <v>218.1118233434975</v>
       </c>
       <c r="O23" t="n">
-        <v>320.6981276545296</v>
+        <v>338.9406286343659</v>
       </c>
       <c r="P23" t="n">
-        <v>320.6981276545296</v>
+        <v>459.7694339252342</v>
       </c>
       <c r="Q23" t="n">
-        <v>320.6981276545296</v>
+        <v>459.7694339252342</v>
       </c>
       <c r="R23" t="n">
-        <v>320.6981276545296</v>
+        <v>488.1971930944176</v>
       </c>
       <c r="S23" t="n">
-        <v>320.6981276545296</v>
+        <v>488.1971930944176</v>
       </c>
       <c r="T23" t="n">
-        <v>418.174393549481</v>
+        <v>488.1971930944176</v>
       </c>
       <c r="U23" t="n">
-        <v>488.1971930944167</v>
+        <v>488.1971930944176</v>
       </c>
       <c r="V23" t="n">
-        <v>488.1971930944165</v>
+        <v>488.1971930944176</v>
       </c>
       <c r="W23" t="n">
-        <v>471.0086272190482</v>
+        <v>471.0086272190491</v>
       </c>
       <c r="X23" t="n">
-        <v>431.7127376376803</v>
+        <v>431.7127376376814</v>
       </c>
       <c r="Y23" t="n">
-        <v>369.6866933858643</v>
+        <v>369.6866933858653</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>133.0460633301754</v>
+        <v>9.763943861888352</v>
       </c>
       <c r="C24" t="n">
-        <v>133.0460633301754</v>
+        <v>9.763943861888352</v>
       </c>
       <c r="D24" t="n">
-        <v>9.763943861888334</v>
+        <v>9.763943861888352</v>
       </c>
       <c r="E24" t="n">
-        <v>9.763943861888334</v>
+        <v>9.763943861888352</v>
       </c>
       <c r="F24" t="n">
-        <v>9.763943861888334</v>
+        <v>9.763943861888352</v>
       </c>
       <c r="G24" t="n">
-        <v>9.763943861888334</v>
+        <v>9.763943861888352</v>
       </c>
       <c r="H24" t="n">
-        <v>9.763943861888334</v>
+        <v>9.763943861888352</v>
       </c>
       <c r="I24" t="n">
-        <v>9.763943861888334</v>
+        <v>9.763943861888352</v>
       </c>
       <c r="J24" t="n">
-        <v>9.763943861888334</v>
+        <v>9.763943861888352</v>
       </c>
       <c r="K24" t="n">
-        <v>43.26205739618794</v>
+        <v>9.763943861888352</v>
       </c>
       <c r="L24" t="n">
-        <v>161.8290993236933</v>
+        <v>41.00029403282537</v>
       </c>
       <c r="M24" t="n">
-        <v>161.8290993236933</v>
+        <v>161.8290993236937</v>
       </c>
       <c r="N24" t="n">
-        <v>282.6579046145614</v>
+        <v>282.6579046145621</v>
       </c>
       <c r="O24" t="n">
-        <v>403.4867099054295</v>
+        <v>403.4867099054304</v>
       </c>
       <c r="P24" t="n">
-        <v>488.1971930944167</v>
+        <v>488.1971930944176</v>
       </c>
       <c r="Q24" t="n">
-        <v>481.9986212547544</v>
+        <v>481.9986212547554</v>
       </c>
       <c r="R24" t="n">
-        <v>481.9986212547544</v>
+        <v>358.7165017864681</v>
       </c>
       <c r="S24" t="n">
-        <v>481.9986212547544</v>
+        <v>358.7165017864681</v>
       </c>
       <c r="T24" t="n">
-        <v>481.9986212547544</v>
+        <v>235.4343823181808</v>
       </c>
       <c r="U24" t="n">
-        <v>481.9986212547544</v>
+        <v>112.1522628498935</v>
       </c>
       <c r="V24" t="n">
-        <v>358.7165017864673</v>
+        <v>112.1522628498935</v>
       </c>
       <c r="W24" t="n">
-        <v>256.3281827984625</v>
+        <v>112.1522628498935</v>
       </c>
       <c r="X24" t="n">
-        <v>256.3281827984625</v>
+        <v>9.763943861888352</v>
       </c>
       <c r="Y24" t="n">
-        <v>256.3281827984625</v>
+        <v>9.763943861888352</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>9.763943861888334</v>
+        <v>9.763943861888352</v>
       </c>
       <c r="C25" t="n">
-        <v>9.763943861888334</v>
+        <v>9.763943861888352</v>
       </c>
       <c r="D25" t="n">
-        <v>9.763943861888334</v>
+        <v>9.763943861888352</v>
       </c>
       <c r="E25" t="n">
-        <v>9.763943861888334</v>
+        <v>9.763943861888352</v>
       </c>
       <c r="F25" t="n">
-        <v>9.763943861888334</v>
+        <v>9.763943861888352</v>
       </c>
       <c r="G25" t="n">
-        <v>9.763943861888334</v>
+        <v>9.763943861888352</v>
       </c>
       <c r="H25" t="n">
-        <v>9.763943861888334</v>
+        <v>9.763943861888352</v>
       </c>
       <c r="I25" t="n">
-        <v>9.763943861888334</v>
+        <v>9.763943861888352</v>
       </c>
       <c r="J25" t="n">
-        <v>9.763943861888334</v>
+        <v>9.763943861888352</v>
       </c>
       <c r="K25" t="n">
-        <v>9.763943861888334</v>
+        <v>9.763943861888352</v>
       </c>
       <c r="L25" t="n">
-        <v>9.763943861888334</v>
+        <v>9.763943861888352</v>
       </c>
       <c r="M25" t="n">
-        <v>9.763943861888334</v>
+        <v>9.763943861888352</v>
       </c>
       <c r="N25" t="n">
-        <v>9.763943861888334</v>
+        <v>9.763943861888352</v>
       </c>
       <c r="O25" t="n">
-        <v>9.763943861888334</v>
+        <v>9.763943861888352</v>
       </c>
       <c r="P25" t="n">
-        <v>9.763943861888334</v>
+        <v>9.763943861888352</v>
       </c>
       <c r="Q25" t="n">
-        <v>9.763943861888334</v>
+        <v>9.763943861888352</v>
       </c>
       <c r="R25" t="n">
-        <v>9.763943861888334</v>
+        <v>9.763943861888352</v>
       </c>
       <c r="S25" t="n">
-        <v>9.763943861888334</v>
+        <v>9.763943861888352</v>
       </c>
       <c r="T25" t="n">
-        <v>9.763943861888334</v>
+        <v>9.763943861888352</v>
       </c>
       <c r="U25" t="n">
-        <v>9.763943861888334</v>
+        <v>9.763943861888352</v>
       </c>
       <c r="V25" t="n">
-        <v>9.763943861888334</v>
+        <v>9.763943861888352</v>
       </c>
       <c r="W25" t="n">
-        <v>9.763943861888334</v>
+        <v>9.763943861888352</v>
       </c>
       <c r="X25" t="n">
-        <v>9.763943861888334</v>
+        <v>9.763943861888352</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.763943861888334</v>
+        <v>9.763943861888352</v>
       </c>
     </row>
     <row r="26">
@@ -6203,40 +6203,40 @@
         <v>1024.530470300262</v>
       </c>
       <c r="C26" t="n">
-        <v>885.8553792567884</v>
+        <v>885.8553792567886</v>
       </c>
       <c r="D26" t="n">
-        <v>759.7392152223571</v>
+        <v>759.7392152223573</v>
       </c>
       <c r="E26" t="n">
-        <v>599.5758265218562</v>
+        <v>599.5758265218565</v>
       </c>
       <c r="F26" t="n">
-        <v>407.3716927926914</v>
+        <v>407.3716927926916</v>
       </c>
       <c r="G26" t="n">
-        <v>199.3815056307863</v>
+        <v>199.3815056307865</v>
       </c>
       <c r="H26" t="n">
-        <v>64.03367896074067</v>
+        <v>64.0336789607406</v>
       </c>
       <c r="I26" t="n">
         <v>36.07516654911174</v>
       </c>
       <c r="J26" t="n">
-        <v>171.7509734792161</v>
+        <v>171.7509734792162</v>
       </c>
       <c r="K26" t="n">
-        <v>377.2303396281795</v>
+        <v>377.2303396281796</v>
       </c>
       <c r="L26" t="n">
-        <v>636.4155757908258</v>
+        <v>636.4155757908259</v>
       </c>
       <c r="M26" t="n">
-        <v>929.9307874696015</v>
+        <v>929.9307874696017</v>
       </c>
       <c r="N26" t="n">
-        <v>1217.942176136766</v>
+        <v>1217.942176136765</v>
       </c>
       <c r="O26" t="n">
         <v>1464.740672711604</v>
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>461.7564812640412</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="C27" t="n">
-        <v>461.7564812640412</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="D27" t="n">
-        <v>422.5234049278797</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="E27" t="n">
-        <v>248.9602010492942</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="F27" t="n">
-        <v>88.53248476653826</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="G27" t="n">
-        <v>88.53248476653826</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="H27" t="n">
-        <v>88.53248476653826</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="I27" t="n">
-        <v>88.53248476653826</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="J27" t="n">
         <v>36.07516654911174</v>
       </c>
       <c r="K27" t="n">
-        <v>74.95631296890312</v>
+        <v>74.95631296890315</v>
       </c>
       <c r="L27" t="n">
-        <v>193.5233548964084</v>
+        <v>193.5233548964085</v>
       </c>
       <c r="M27" t="n">
-        <v>376.6401645971881</v>
+        <v>376.6401645971882</v>
       </c>
       <c r="N27" t="n">
-        <v>583.0234209365542</v>
+        <v>583.0234209365543</v>
       </c>
       <c r="O27" t="n">
-        <v>716.0766978848376</v>
+        <v>716.0766978848377</v>
       </c>
       <c r="P27" t="n">
-        <v>800.7871810738247</v>
+        <v>800.787181073825</v>
       </c>
       <c r="Q27" t="n">
-        <v>800.7871810738247</v>
+        <v>794.5886092341627</v>
       </c>
       <c r="R27" t="n">
-        <v>800.7871810738247</v>
+        <v>794.5886092341627</v>
       </c>
       <c r="S27" t="n">
-        <v>800.7871810738247</v>
+        <v>794.5886092341627</v>
       </c>
       <c r="T27" t="n">
-        <v>798.7360447531759</v>
+        <v>577.4696373093317</v>
       </c>
       <c r="U27" t="n">
-        <v>774.1799492655454</v>
+        <v>552.9135418217013</v>
       </c>
       <c r="V27" t="n">
-        <v>746.1680667733616</v>
+        <v>309.8338237253354</v>
       </c>
       <c r="W27" t="n">
-        <v>476.7694975036529</v>
+        <v>255.5030900598089</v>
       </c>
       <c r="X27" t="n">
-        <v>472.3293387245314</v>
+        <v>251.0629312806874</v>
       </c>
       <c r="Y27" t="n">
-        <v>461.7564812640412</v>
+        <v>36.07516654911174</v>
       </c>
     </row>
     <row r="28">
@@ -6373,58 +6373,58 @@
         <v>36.07516654911174</v>
       </c>
       <c r="G28" t="n">
-        <v>36.07516654911174</v>
+        <v>79.85415021279874</v>
       </c>
       <c r="H28" t="n">
-        <v>36.07516654911174</v>
+        <v>79.85415021279874</v>
       </c>
       <c r="I28" t="n">
-        <v>36.07516654911174</v>
+        <v>79.85415021279874</v>
       </c>
       <c r="J28" t="n">
-        <v>36.07516654911174</v>
+        <v>79.85415021279874</v>
       </c>
       <c r="K28" t="n">
-        <v>36.07516654911174</v>
+        <v>95.87107322179733</v>
       </c>
       <c r="L28" t="n">
-        <v>36.07516654911174</v>
+        <v>95.87107322179733</v>
       </c>
       <c r="M28" t="n">
-        <v>36.07516654911174</v>
+        <v>95.87107322179733</v>
       </c>
       <c r="N28" t="n">
-        <v>231.2373967723315</v>
+        <v>95.87107322179733</v>
       </c>
       <c r="O28" t="n">
-        <v>270.2284982810516</v>
+        <v>270.2284982810514</v>
       </c>
       <c r="P28" t="n">
-        <v>270.2284982810516</v>
+        <v>270.2284982810514</v>
       </c>
       <c r="Q28" t="n">
-        <v>270.2284982810516</v>
+        <v>270.2284982810514</v>
       </c>
       <c r="R28" t="n">
-        <v>270.2284982810516</v>
+        <v>270.2284982810514</v>
       </c>
       <c r="S28" t="n">
-        <v>247.5648574270849</v>
+        <v>247.5648574270847</v>
       </c>
       <c r="T28" t="n">
-        <v>236.6316904687925</v>
+        <v>236.6316904687924</v>
       </c>
       <c r="U28" t="n">
-        <v>160.1275115022783</v>
+        <v>160.1275115022782</v>
       </c>
       <c r="V28" t="n">
-        <v>127.6104832837838</v>
+        <v>127.6104832837837</v>
       </c>
       <c r="W28" t="n">
-        <v>49.43518041388984</v>
+        <v>49.43518041388977</v>
       </c>
       <c r="X28" t="n">
-        <v>40.34194994914013</v>
+        <v>40.34194994914009</v>
       </c>
       <c r="Y28" t="n">
         <v>36.07516654911174</v>
@@ -6437,37 +6437,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1024.530470300262</v>
+        <v>1024.530470300261</v>
       </c>
       <c r="C29" t="n">
-        <v>885.8553792567889</v>
+        <v>885.8553792567881</v>
       </c>
       <c r="D29" t="n">
-        <v>759.7392152223575</v>
+        <v>759.7392152223568</v>
       </c>
       <c r="E29" t="n">
-        <v>599.5758265218567</v>
+        <v>599.575826521856</v>
       </c>
       <c r="F29" t="n">
-        <v>407.3716927926919</v>
+        <v>407.3716927926912</v>
       </c>
       <c r="G29" t="n">
-        <v>199.3815056307867</v>
+        <v>199.381505630786</v>
       </c>
       <c r="H29" t="n">
-        <v>64.0336789607407</v>
+        <v>64.0336789607406</v>
       </c>
       <c r="I29" t="n">
         <v>36.07516654911174</v>
       </c>
       <c r="J29" t="n">
-        <v>171.750973479216</v>
+        <v>171.7509734792161</v>
       </c>
       <c r="K29" t="n">
-        <v>377.2303396281794</v>
+        <v>377.2303396281796</v>
       </c>
       <c r="L29" t="n">
-        <v>636.4155757908256</v>
+        <v>636.4155757908259</v>
       </c>
       <c r="M29" t="n">
         <v>929.9307874696017</v>
@@ -6491,22 +6491,22 @@
         <v>1789.258006477459</v>
       </c>
       <c r="T29" t="n">
-        <v>1779.660277467715</v>
+        <v>1779.660277467714</v>
       </c>
       <c r="U29" t="n">
-        <v>1742.051665537845</v>
+        <v>1742.051665537844</v>
       </c>
       <c r="V29" t="n">
-        <v>1632.998507597429</v>
+        <v>1632.998507597428</v>
       </c>
       <c r="W29" t="n">
-        <v>1506.756783781645</v>
+        <v>1506.756783781644</v>
       </c>
       <c r="X29" t="n">
-        <v>1358.407736259861</v>
+        <v>1358.40773625986</v>
       </c>
       <c r="Y29" t="n">
-        <v>1187.328534067629</v>
+        <v>1187.328534067628</v>
       </c>
     </row>
     <row r="30">
@@ -6516,13 +6516,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>36.07516654911174</v>
+        <v>209.6383704276973</v>
       </c>
       <c r="C30" t="n">
-        <v>36.07516654911174</v>
+        <v>209.6383704276973</v>
       </c>
       <c r="D30" t="n">
-        <v>36.07516654911174</v>
+        <v>209.6383704276973</v>
       </c>
       <c r="E30" t="n">
         <v>36.07516654911174</v>
@@ -6543,49 +6543,49 @@
         <v>36.07516654911174</v>
       </c>
       <c r="K30" t="n">
-        <v>74.95631296890312</v>
+        <v>74.95631296890315</v>
       </c>
       <c r="L30" t="n">
-        <v>193.5233548964084</v>
+        <v>193.5233548964085</v>
       </c>
       <c r="M30" t="n">
-        <v>376.6401645971881</v>
+        <v>376.6401645971882</v>
       </c>
       <c r="N30" t="n">
-        <v>583.0234209365542</v>
+        <v>583.0234209365543</v>
       </c>
       <c r="O30" t="n">
-        <v>716.0766978848376</v>
+        <v>716.0766978848377</v>
       </c>
       <c r="P30" t="n">
-        <v>800.7871810738247</v>
+        <v>800.787181073825</v>
       </c>
       <c r="Q30" t="n">
-        <v>800.7871810738247</v>
+        <v>794.5886092341627</v>
       </c>
       <c r="R30" t="n">
-        <v>800.7871810738247</v>
+        <v>727.2049231644156</v>
       </c>
       <c r="S30" t="n">
-        <v>800.7871810738247</v>
+        <v>727.2049231644156</v>
       </c>
       <c r="T30" t="n">
-        <v>583.6682091489937</v>
+        <v>725.1537868437669</v>
       </c>
       <c r="U30" t="n">
-        <v>348.498634550616</v>
+        <v>700.5976913561365</v>
       </c>
       <c r="V30" t="n">
-        <v>320.4867520584322</v>
+        <v>672.5858088639527</v>
       </c>
       <c r="W30" t="n">
-        <v>266.1560183929057</v>
+        <v>618.2550751984262</v>
       </c>
       <c r="X30" t="n">
-        <v>261.7158596137841</v>
+        <v>613.8149164193047</v>
       </c>
       <c r="Y30" t="n">
-        <v>36.07516654911174</v>
+        <v>388.1742233546324</v>
       </c>
     </row>
     <row r="31">
@@ -6604,64 +6604,64 @@
         <v>36.07516654911174</v>
       </c>
       <c r="E31" t="n">
-        <v>106.6037724246679</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="F31" t="n">
-        <v>106.6037724246679</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="G31" t="n">
-        <v>106.6037724246679</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="H31" t="n">
-        <v>106.6037724246679</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="I31" t="n">
-        <v>106.6037724246679</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="J31" t="n">
-        <v>106.6037724246679</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="K31" t="n">
-        <v>106.6037724246679</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="L31" t="n">
-        <v>106.6037724246679</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="M31" t="n">
-        <v>106.6037724246679</v>
+        <v>222.6454168959492</v>
       </c>
       <c r="N31" t="n">
-        <v>106.6037724246679</v>
+        <v>260.6219149623249</v>
       </c>
       <c r="O31" t="n">
-        <v>116.7580003597889</v>
+        <v>260.6219149623249</v>
       </c>
       <c r="P31" t="n">
-        <v>270.2284982810516</v>
+        <v>260.6219149623249</v>
       </c>
       <c r="Q31" t="n">
-        <v>270.2284982810516</v>
+        <v>260.6219149623249</v>
       </c>
       <c r="R31" t="n">
-        <v>270.2284982810516</v>
+        <v>270.2284982810514</v>
       </c>
       <c r="S31" t="n">
-        <v>247.5648574270849</v>
+        <v>247.5648574270847</v>
       </c>
       <c r="T31" t="n">
-        <v>236.6316904687925</v>
+        <v>236.6316904687924</v>
       </c>
       <c r="U31" t="n">
-        <v>160.1275115022783</v>
+        <v>160.1275115022782</v>
       </c>
       <c r="V31" t="n">
-        <v>127.6104832837838</v>
+        <v>127.6104832837837</v>
       </c>
       <c r="W31" t="n">
-        <v>49.43518041388984</v>
+        <v>49.43518041388977</v>
       </c>
       <c r="X31" t="n">
-        <v>40.34194994914013</v>
+        <v>40.34194994914009</v>
       </c>
       <c r="Y31" t="n">
         <v>36.07516654911174</v>
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1024.530470300261</v>
+        <v>1024.530470300262</v>
       </c>
       <c r="C32" t="n">
-        <v>885.8553792567881</v>
+        <v>885.8553792567884</v>
       </c>
       <c r="D32" t="n">
-        <v>759.739215222357</v>
+        <v>759.7392152223571</v>
       </c>
       <c r="E32" t="n">
-        <v>599.575826521856</v>
+        <v>599.5758265218562</v>
       </c>
       <c r="F32" t="n">
         <v>407.3716927926914</v>
       </c>
       <c r="G32" t="n">
-        <v>199.3815056307863</v>
+        <v>199.3815056307866</v>
       </c>
       <c r="H32" t="n">
-        <v>64.03367896074067</v>
+        <v>64.03367896074066</v>
       </c>
       <c r="I32" t="n">
         <v>36.07516654911174</v>
@@ -6710,13 +6710,13 @@
         <v>929.9307874696017</v>
       </c>
       <c r="N32" t="n">
-        <v>1217.942176136766</v>
+        <v>1217.942176136765</v>
       </c>
       <c r="O32" t="n">
-        <v>1464.740672711605</v>
+        <v>1464.740672711604</v>
       </c>
       <c r="P32" t="n">
-        <v>1662.115223691695</v>
+        <v>1662.115223691694</v>
       </c>
       <c r="Q32" t="n">
         <v>1785.235767148034</v>
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>385.9151570989039</v>
+        <v>110.9681026145307</v>
       </c>
       <c r="C33" t="n">
-        <v>196.5028828318677</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="D33" t="n">
-        <v>196.5028828318677</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="E33" t="n">
-        <v>196.5028828318677</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="F33" t="n">
         <v>36.07516654911174</v>
@@ -6780,7 +6780,7 @@
         <v>36.07516654911174</v>
       </c>
       <c r="K33" t="n">
-        <v>74.95631296890315</v>
+        <v>74.95631296890313</v>
       </c>
       <c r="L33" t="n">
         <v>193.5233548964085</v>
@@ -6801,28 +6801,28 @@
         <v>800.787181073825</v>
       </c>
       <c r="R33" t="n">
-        <v>800.787181073825</v>
+        <v>665.0666380284964</v>
       </c>
       <c r="S33" t="n">
-        <v>800.787181073825</v>
+        <v>665.0666380284964</v>
       </c>
       <c r="T33" t="n">
-        <v>583.6682091489939</v>
+        <v>663.0155017078475</v>
       </c>
       <c r="U33" t="n">
-        <v>559.1121136613634</v>
+        <v>638.459406220217</v>
       </c>
       <c r="V33" t="n">
-        <v>531.1002311691797</v>
+        <v>395.3796881238511</v>
       </c>
       <c r="W33" t="n">
-        <v>476.7694975036531</v>
+        <v>341.0489544583245</v>
       </c>
       <c r="X33" t="n">
-        <v>396.4880145593941</v>
+        <v>121.5409600750209</v>
       </c>
       <c r="Y33" t="n">
-        <v>385.9151570989039</v>
+        <v>110.9681026145307</v>
       </c>
     </row>
     <row r="34">
@@ -6838,40 +6838,40 @@
         <v>36.07516654911174</v>
       </c>
       <c r="D34" t="n">
-        <v>103.1323284765671</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="E34" t="n">
-        <v>103.1323284765671</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="F34" t="n">
-        <v>103.1323284765671</v>
+        <v>109.3255388285085</v>
       </c>
       <c r="G34" t="n">
-        <v>103.1323284765671</v>
+        <v>109.3255388285085</v>
       </c>
       <c r="H34" t="n">
-        <v>103.1323284765671</v>
+        <v>109.3255388285085</v>
       </c>
       <c r="I34" t="n">
-        <v>150.8591772997316</v>
+        <v>109.3255388285085</v>
       </c>
       <c r="J34" t="n">
-        <v>242.946848698078</v>
+        <v>109.3255388285085</v>
       </c>
       <c r="K34" t="n">
-        <v>242.946848698078</v>
+        <v>109.3255388285085</v>
       </c>
       <c r="L34" t="n">
-        <v>242.946848698078</v>
+        <v>109.3255388285085</v>
       </c>
       <c r="M34" t="n">
-        <v>242.946848698078</v>
+        <v>109.3255388285085</v>
       </c>
       <c r="N34" t="n">
-        <v>270.2284982810516</v>
+        <v>116.7580003597888</v>
       </c>
       <c r="O34" t="n">
-        <v>270.2284982810516</v>
+        <v>116.7580003597888</v>
       </c>
       <c r="P34" t="n">
         <v>270.2284982810516</v>
@@ -6895,10 +6895,10 @@
         <v>127.6104832837838</v>
       </c>
       <c r="W34" t="n">
-        <v>49.43518041388984</v>
+        <v>49.43518041388983</v>
       </c>
       <c r="X34" t="n">
-        <v>40.34194994914013</v>
+        <v>40.34194994914012</v>
       </c>
       <c r="Y34" t="n">
         <v>36.07516654911174</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>773.6196706102307</v>
+        <v>773.6196706102303</v>
       </c>
       <c r="C35" t="n">
-        <v>670.4759701361763</v>
+        <v>670.4759701361759</v>
       </c>
       <c r="D35" t="n">
-        <v>579.891196671164</v>
+        <v>579.8911966711637</v>
       </c>
       <c r="E35" t="n">
-        <v>455.2591985400821</v>
+        <v>455.259198540082</v>
       </c>
       <c r="F35" t="n">
         <v>298.5864553803362</v>
       </c>
       <c r="G35" t="n">
-        <v>126.1276587878504</v>
+        <v>126.1276587878502</v>
       </c>
       <c r="H35" t="n">
-        <v>26.3112226872234</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="I35" t="n">
-        <v>26.3112226872234</v>
+        <v>33.73340056967354</v>
       </c>
       <c r="J35" t="n">
-        <v>196.8113455144153</v>
+        <v>33.73340056967354</v>
       </c>
       <c r="K35" t="n">
-        <v>437.1150275604663</v>
+        <v>274.0370826157247</v>
       </c>
       <c r="L35" t="n">
-        <v>485.5122780474536</v>
+        <v>568.0466346754586</v>
       </c>
       <c r="M35" t="n">
-        <v>811.113658801843</v>
+        <v>699.3930503386058</v>
       </c>
       <c r="N35" t="n">
-        <v>888.337061793348</v>
+        <v>776.6164533301107</v>
       </c>
       <c r="O35" t="n">
-        <v>1169.959874265275</v>
+        <v>1058.239265802038</v>
       </c>
       <c r="P35" t="n">
-        <v>1241.601706850105</v>
+        <v>1058.239265802038</v>
       </c>
       <c r="Q35" t="n">
-        <v>1241.601706850105</v>
+        <v>1216.184125155465</v>
       </c>
       <c r="R35" t="n">
-        <v>1294.948583054745</v>
+        <v>1269.531001360106</v>
       </c>
       <c r="S35" t="n">
-        <v>1315.56113436117</v>
+        <v>1290.14355266653</v>
       </c>
       <c r="T35" t="n">
-        <v>1315.56113436117</v>
+        <v>1315.561134361168</v>
       </c>
       <c r="U35" t="n">
-        <v>1313.483913000719</v>
+        <v>1313.483913000717</v>
       </c>
       <c r="V35" t="n">
-        <v>1239.962145629721</v>
+        <v>1239.96214562972</v>
       </c>
       <c r="W35" t="n">
-        <v>1149.251812383356</v>
+        <v>1149.251812383355</v>
       </c>
       <c r="X35" t="n">
         <v>1036.434155430991</v>
       </c>
       <c r="Y35" t="n">
-        <v>900.8863438081784</v>
+        <v>900.8863438081779</v>
       </c>
     </row>
     <row r="36">
@@ -6990,37 +6990,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>113.5409371266918</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="C36" t="n">
-        <v>26.3112226872234</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="D36" t="n">
-        <v>26.3112226872234</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="E36" t="n">
-        <v>26.3112226872234</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="F36" t="n">
-        <v>26.3112226872234</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="G36" t="n">
-        <v>26.3112226872234</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="H36" t="n">
-        <v>26.3112226872234</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3112226872234</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="J36" t="n">
-        <v>26.3112226872234</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="K36" t="n">
-        <v>65.1923691070148</v>
+        <v>65.19236910701476</v>
       </c>
       <c r="L36" t="n">
-        <v>183.7594110345202</v>
+        <v>183.7594110345201</v>
       </c>
       <c r="M36" t="n">
         <v>366.8762207352999</v>
@@ -7035,31 +7035,31 @@
         <v>791.0232372119365</v>
       </c>
       <c r="Q36" t="n">
-        <v>791.0232372119365</v>
+        <v>784.8246653722742</v>
       </c>
       <c r="R36" t="n">
-        <v>791.0232372119365</v>
+        <v>649.1041223269457</v>
       </c>
       <c r="S36" t="n">
-        <v>597.6049043792843</v>
+        <v>455.6857894942935</v>
       </c>
       <c r="T36" t="n">
-        <v>597.6049043792843</v>
+        <v>455.6857894942935</v>
       </c>
       <c r="U36" t="n">
-        <v>357.9809732874717</v>
+        <v>455.6857894942935</v>
       </c>
       <c r="V36" t="n">
-        <v>357.9809732874717</v>
+        <v>455.6857894942935</v>
       </c>
       <c r="W36" t="n">
-        <v>339.1816301913641</v>
+        <v>186.2872202245849</v>
       </c>
       <c r="X36" t="n">
-        <v>339.1816301913641</v>
+        <v>186.2872202245849</v>
       </c>
       <c r="Y36" t="n">
-        <v>113.5409371266918</v>
+        <v>186.2872202245849</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>26.3112226872234</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="C37" t="n">
-        <v>26.3112226872234</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="D37" t="n">
-        <v>85.81920442352839</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="E37" t="n">
-        <v>85.81920442352839</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="F37" t="n">
-        <v>85.81920442352839</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="G37" t="n">
-        <v>85.81920442352839</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="H37" t="n">
-        <v>85.81920442352839</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="I37" t="n">
-        <v>85.81920442352839</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="J37" t="n">
-        <v>85.81920442352839</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="K37" t="n">
-        <v>85.81920442352839</v>
+        <v>109.9279233847932</v>
       </c>
       <c r="L37" t="n">
-        <v>85.81920442352839</v>
+        <v>109.9279233847932</v>
       </c>
       <c r="M37" t="n">
-        <v>85.81920442352839</v>
+        <v>109.9279233847932</v>
       </c>
       <c r="N37" t="n">
-        <v>85.81920442352839</v>
+        <v>109.9279233847932</v>
       </c>
       <c r="O37" t="n">
-        <v>85.81920442352839</v>
+        <v>109.9279233847932</v>
       </c>
       <c r="P37" t="n">
-        <v>85.81920442352839</v>
+        <v>109.9279233847932</v>
       </c>
       <c r="Q37" t="n">
-        <v>85.81920442352839</v>
+        <v>109.9279233847932</v>
       </c>
       <c r="R37" t="n">
-        <v>85.81920442352839</v>
+        <v>109.9279233847932</v>
       </c>
       <c r="S37" t="n">
-        <v>85.81920442352839</v>
+        <v>109.9279233847932</v>
       </c>
       <c r="T37" t="n">
-        <v>109.9279233847936</v>
+        <v>109.9279233847932</v>
       </c>
       <c r="U37" t="n">
-        <v>68.95513498769837</v>
+        <v>68.95513498769819</v>
       </c>
       <c r="V37" t="n">
-        <v>68.95513498769837</v>
+        <v>68.95513498769819</v>
       </c>
       <c r="W37" t="n">
-        <v>26.3112226872234</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="X37" t="n">
-        <v>26.3112226872234</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="Y37" t="n">
-        <v>26.3112226872234</v>
+        <v>26.31122268722336</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>773.6196706102307</v>
+        <v>773.6196706102298</v>
       </c>
       <c r="C38" t="n">
-        <v>670.4759701361764</v>
+        <v>670.4759701361758</v>
       </c>
       <c r="D38" t="n">
-        <v>579.8911966711642</v>
+        <v>579.8911966711635</v>
       </c>
       <c r="E38" t="n">
-        <v>455.2591985400824</v>
+        <v>455.2591985400818</v>
       </c>
       <c r="F38" t="n">
-        <v>298.5864553803365</v>
+        <v>298.586455380336</v>
       </c>
       <c r="G38" t="n">
-        <v>126.1276587878504</v>
+        <v>126.1276587878502</v>
       </c>
       <c r="H38" t="n">
-        <v>26.3112226872234</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="I38" t="n">
-        <v>33.73340056967344</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="J38" t="n">
-        <v>204.2335233968653</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="K38" t="n">
-        <v>204.2335233968653</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="L38" t="n">
-        <v>252.6307738838526</v>
+        <v>320.3207747469572</v>
       </c>
       <c r="M38" t="n">
-        <v>335.3579998869695</v>
+        <v>645.9221555013462</v>
       </c>
       <c r="N38" t="n">
-        <v>658.1937044512208</v>
+        <v>790.02988802568</v>
       </c>
       <c r="O38" t="n">
-        <v>939.8165169231474</v>
+        <v>826.0403989248601</v>
       </c>
       <c r="P38" t="n">
-        <v>1172.015383800325</v>
+        <v>1058.239265802038</v>
       </c>
       <c r="Q38" t="n">
-        <v>1269.531001360108</v>
+        <v>1216.184125155465</v>
       </c>
       <c r="R38" t="n">
-        <v>1269.531001360108</v>
+        <v>1269.531001360106</v>
       </c>
       <c r="S38" t="n">
-        <v>1290.143552666532</v>
+        <v>1290.14355266653</v>
       </c>
       <c r="T38" t="n">
-        <v>1315.56113436117</v>
+        <v>1315.561134361168</v>
       </c>
       <c r="U38" t="n">
-        <v>1313.483913000718</v>
+        <v>1313.483913000717</v>
       </c>
       <c r="V38" t="n">
-        <v>1239.962145629721</v>
+        <v>1239.96214562972</v>
       </c>
       <c r="W38" t="n">
-        <v>1149.251812383356</v>
+        <v>1149.251812383355</v>
       </c>
       <c r="X38" t="n">
-        <v>1036.434155430991</v>
+        <v>1036.43415543099</v>
       </c>
       <c r="Y38" t="n">
-        <v>900.8863438081785</v>
+        <v>900.8863438081775</v>
       </c>
     </row>
     <row r="39">
@@ -7227,37 +7227,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.5524986382496</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="C39" t="n">
-        <v>176.5524986382496</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="D39" t="n">
-        <v>176.5524986382496</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="E39" t="n">
-        <v>176.5524986382496</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="F39" t="n">
-        <v>176.5524986382496</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="G39" t="n">
-        <v>26.3112226872234</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="H39" t="n">
-        <v>26.3112226872234</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3112226872234</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="J39" t="n">
-        <v>26.3112226872234</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="K39" t="n">
-        <v>65.1923691070148</v>
+        <v>65.19236910701476</v>
       </c>
       <c r="L39" t="n">
-        <v>183.7594110345202</v>
+        <v>183.7594110345201</v>
       </c>
       <c r="M39" t="n">
         <v>366.8762207352999</v>
@@ -7272,31 +7272,31 @@
         <v>791.0232372119365</v>
       </c>
       <c r="Q39" t="n">
-        <v>791.0232372119365</v>
+        <v>784.8246653722742</v>
       </c>
       <c r="R39" t="n">
-        <v>791.0232372119365</v>
+        <v>784.8246653722742</v>
       </c>
       <c r="S39" t="n">
-        <v>791.0232372119365</v>
+        <v>784.8246653722742</v>
       </c>
       <c r="T39" t="n">
-        <v>593.3956890445959</v>
+        <v>567.7056934474432</v>
       </c>
       <c r="U39" t="n">
-        <v>593.3956890445959</v>
+        <v>328.0817623556306</v>
       </c>
       <c r="V39" t="n">
-        <v>593.3956890445959</v>
+        <v>328.0817623556306</v>
       </c>
       <c r="W39" t="n">
-        <v>574.5963459484883</v>
+        <v>58.68319308592191</v>
       </c>
       <c r="X39" t="n">
-        <v>355.0883515651847</v>
+        <v>58.68319308592191</v>
       </c>
       <c r="Y39" t="n">
-        <v>355.0883515651847</v>
+        <v>58.68319308592191</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>26.3112226872234</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="C40" t="n">
-        <v>26.3112226872234</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="D40" t="n">
-        <v>26.3112226872234</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="E40" t="n">
-        <v>26.3112226872234</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="F40" t="n">
-        <v>26.3112226872234</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="G40" t="n">
-        <v>26.3112226872234</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="H40" t="n">
-        <v>26.3112226872234</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="I40" t="n">
-        <v>26.3112226872234</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="J40" t="n">
-        <v>26.3112226872234</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="K40" t="n">
-        <v>26.3112226872234</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="L40" t="n">
-        <v>26.3112226872234</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="M40" t="n">
-        <v>26.3112226872234</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="N40" t="n">
-        <v>26.3112226872234</v>
+        <v>106.9735468446521</v>
       </c>
       <c r="O40" t="n">
-        <v>26.3112226872234</v>
+        <v>106.9735468446521</v>
       </c>
       <c r="P40" t="n">
-        <v>26.3112226872234</v>
+        <v>106.9735468446521</v>
       </c>
       <c r="Q40" t="n">
-        <v>109.9279233847936</v>
+        <v>106.9735468446521</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9279233847936</v>
+        <v>106.9735468446521</v>
       </c>
       <c r="S40" t="n">
-        <v>109.9279233847936</v>
+        <v>106.9735468446521</v>
       </c>
       <c r="T40" t="n">
-        <v>109.9279233847936</v>
+        <v>106.9735468446521</v>
       </c>
       <c r="U40" t="n">
-        <v>68.95513498769837</v>
+        <v>66.000758447557</v>
       </c>
       <c r="V40" t="n">
-        <v>68.95513498769837</v>
+        <v>68.95513498769819</v>
       </c>
       <c r="W40" t="n">
-        <v>26.3112226872234</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="X40" t="n">
-        <v>26.3112226872234</v>
+        <v>26.31122268722336</v>
       </c>
       <c r="Y40" t="n">
-        <v>26.3112226872234</v>
+        <v>26.31122268722336</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>820.9115219629607</v>
+        <v>820.9115219629606</v>
       </c>
       <c r="C41" t="n">
-        <v>710.1949433311163</v>
+        <v>710.1949433311161</v>
       </c>
       <c r="D41" t="n">
         <v>612.0372917083139</v>
       </c>
       <c r="E41" t="n">
-        <v>479.8324154194419</v>
+        <v>479.832415419442</v>
       </c>
       <c r="F41" t="n">
-        <v>315.586794101906</v>
+        <v>315.5867941019059</v>
       </c>
       <c r="G41" t="n">
         <v>135.5551193516299</v>
@@ -7418,25 +7418,25 @@
         <v>710.7126283788393</v>
       </c>
       <c r="M41" t="n">
-        <v>793.4398543819563</v>
+        <v>1031.629978072253</v>
       </c>
       <c r="N41" t="n">
         <v>1108.853381063758</v>
       </c>
       <c r="O41" t="n">
-        <v>1144.863891962938</v>
+        <v>1165.518161853726</v>
       </c>
       <c r="P41" t="n">
-        <v>1362.36555633845</v>
+        <v>1390.294850848453</v>
       </c>
       <c r="Q41" t="n">
-        <v>1362.36555633845</v>
+        <v>1390.294850848453</v>
       </c>
       <c r="R41" t="n">
-        <v>1408.29025466064</v>
+        <v>1390.294850848453</v>
       </c>
       <c r="S41" t="n">
-        <v>1408.29025466064</v>
+        <v>1390.294850848453</v>
       </c>
       <c r="T41" t="n">
         <v>1408.29025466064</v>
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>270.0353975776756</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="C42" t="n">
-        <v>80.6231233106393</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="D42" t="n">
-        <v>80.6231233106393</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="E42" t="n">
-        <v>80.6231233106393</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="F42" t="n">
-        <v>80.6231233106393</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="G42" t="n">
-        <v>80.6231233106393</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="H42" t="n">
-        <v>80.6231233106393</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="I42" t="n">
-        <v>80.6231233106393</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="J42" t="n">
         <v>28.1658050932128</v>
@@ -7515,25 +7515,25 @@
         <v>792.877819617926</v>
       </c>
       <c r="S42" t="n">
-        <v>718.0231898548742</v>
+        <v>599.4594867852738</v>
       </c>
       <c r="T42" t="n">
-        <v>718.0231898548742</v>
+        <v>540.6440924592873</v>
       </c>
       <c r="U42" t="n">
-        <v>718.0231898548742</v>
+        <v>540.6440924592873</v>
       </c>
       <c r="V42" t="n">
-        <v>474.9434717585083</v>
+        <v>297.5643743629215</v>
       </c>
       <c r="W42" t="n">
-        <v>448.5712505046106</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="X42" t="n">
-        <v>448.5712505046106</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="Y42" t="n">
-        <v>448.5712505046106</v>
+        <v>28.1658050932128</v>
       </c>
     </row>
     <row r="43">
@@ -7570,28 +7570,28 @@
         <v>28.1658050932128</v>
       </c>
       <c r="K43" t="n">
-        <v>126.2972742995641</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="L43" t="n">
-        <v>126.2972742995641</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="M43" t="n">
-        <v>126.2972742995641</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="N43" t="n">
-        <v>126.2972742995641</v>
+        <v>131.4867779132288</v>
       </c>
       <c r="O43" t="n">
-        <v>126.2972742995641</v>
+        <v>131.4867779132288</v>
       </c>
       <c r="P43" t="n">
-        <v>126.2972742995641</v>
+        <v>131.4867779132288</v>
       </c>
       <c r="Q43" t="n">
-        <v>126.2972742995641</v>
+        <v>131.4867779132288</v>
       </c>
       <c r="R43" t="n">
-        <v>126.2972742995641</v>
+        <v>131.4867779132288</v>
       </c>
       <c r="S43" t="n">
         <v>131.4867779132288</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>820.9115219629609</v>
+        <v>820.9115219629613</v>
       </c>
       <c r="C44" t="n">
-        <v>710.1949433311165</v>
+        <v>710.194943331117</v>
       </c>
       <c r="D44" t="n">
-        <v>612.0372917083141</v>
+        <v>612.0372917083143</v>
       </c>
       <c r="E44" t="n">
-        <v>479.8324154194421</v>
+        <v>479.8324154194419</v>
       </c>
       <c r="F44" t="n">
-        <v>315.5867941019062</v>
+        <v>315.586794101906</v>
       </c>
       <c r="G44" t="n">
         <v>135.5551193516299</v>
@@ -7646,25 +7646,25 @@
         <v>28.1658050932128</v>
       </c>
       <c r="J44" t="n">
-        <v>28.1658050932128</v>
+        <v>191.2437500379547</v>
       </c>
       <c r="K44" t="n">
-        <v>235.141770875201</v>
+        <v>191.2437500379547</v>
       </c>
       <c r="L44" t="n">
-        <v>521.7291450524847</v>
+        <v>477.8311242152384</v>
       </c>
       <c r="M44" t="n">
-        <v>842.6464947458981</v>
+        <v>754.9790525265792</v>
       </c>
       <c r="N44" t="n">
-        <v>919.869897737403</v>
+        <v>1070.392579208381</v>
       </c>
       <c r="O44" t="n">
-        <v>955.8804086365832</v>
+        <v>1106.403090107561</v>
       </c>
       <c r="P44" t="n">
-        <v>1180.657097631311</v>
+        <v>1331.179779102288</v>
       </c>
       <c r="Q44" t="n">
         <v>1331.179779102288</v>
@@ -7685,13 +7685,13 @@
         <v>1317.545509613612</v>
       </c>
       <c r="W44" t="n">
-        <v>1219.262298209456</v>
+        <v>1219.262298209457</v>
       </c>
       <c r="X44" t="n">
         <v>1098.871763099302</v>
       </c>
       <c r="Y44" t="n">
-        <v>955.7510733186987</v>
+        <v>955.7510733186991</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7701,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>549.3332563586425</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="C45" t="n">
-        <v>359.9209820916062</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="D45" t="n">
-        <v>359.9209820916062</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="E45" t="n">
-        <v>230.8643992616655</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="F45" t="n">
-        <v>230.8643992616655</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="G45" t="n">
-        <v>80.6231233106393</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="H45" t="n">
-        <v>80.6231233106393</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="I45" t="n">
-        <v>80.6231233106393</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="J45" t="n">
         <v>28.1658050932128</v>
@@ -7746,31 +7746,31 @@
         <v>792.8778196179261</v>
       </c>
       <c r="Q45" t="n">
-        <v>792.8778196179261</v>
+        <v>786.6792477782639</v>
       </c>
       <c r="R45" t="n">
-        <v>792.8778196179261</v>
+        <v>786.6792477782639</v>
       </c>
       <c r="S45" t="n">
-        <v>792.8778196179261</v>
+        <v>593.2609149456117</v>
       </c>
       <c r="T45" t="n">
-        <v>575.758847693095</v>
+        <v>376.1419430207807</v>
       </c>
       <c r="U45" t="n">
-        <v>575.758847693095</v>
+        <v>376.1419430207807</v>
       </c>
       <c r="V45" t="n">
-        <v>575.7054776125402</v>
+        <v>376.0885729402258</v>
       </c>
       <c r="W45" t="n">
-        <v>549.3332563586425</v>
+        <v>349.7163516863282</v>
       </c>
       <c r="X45" t="n">
-        <v>549.3332563586425</v>
+        <v>349.7163516863282</v>
       </c>
       <c r="Y45" t="n">
-        <v>549.3332563586425</v>
+        <v>124.0756586216558</v>
       </c>
     </row>
     <row r="46">
@@ -7798,31 +7798,31 @@
         <v>28.1658050932128</v>
       </c>
       <c r="H46" t="n">
-        <v>102.2321417622894</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="I46" t="n">
-        <v>102.2321417622894</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="J46" t="n">
-        <v>131.4867779132288</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="K46" t="n">
-        <v>131.4867779132288</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="L46" t="n">
-        <v>131.4867779132288</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="M46" t="n">
-        <v>131.4867779132288</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="N46" t="n">
-        <v>131.4867779132288</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="O46" t="n">
-        <v>131.4867779132288</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="P46" t="n">
-        <v>131.4867779132288</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="Q46" t="n">
         <v>131.4867779132288</v>
@@ -8769,19 +8769,19 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>165.9360666291091</v>
+        <v>132.0995883116344</v>
       </c>
       <c r="L12" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M12" t="n">
-        <v>116.810406864768</v>
+        <v>238.8597051383726</v>
       </c>
       <c r="N12" t="n">
-        <v>224.1952211518977</v>
+        <v>224.195221151898</v>
       </c>
       <c r="O12" t="n">
-        <v>242.8748317222146</v>
+        <v>154.6620117660855</v>
       </c>
       <c r="P12" t="n">
         <v>206.3638740786793</v>
@@ -9006,22 +9006,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>165.9360666291091</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L15" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M15" t="n">
-        <v>116.810406864768</v>
+        <v>238.8597051383726</v>
       </c>
       <c r="N15" t="n">
-        <v>224.1952211518977</v>
+        <v>102.1459228782933</v>
       </c>
       <c r="O15" t="n">
-        <v>242.8748317222146</v>
+        <v>242.8748317222149</v>
       </c>
       <c r="P15" t="n">
-        <v>206.3638740786793</v>
+        <v>200.926467123638</v>
       </c>
       <c r="Q15" t="n">
         <v>136.1300824528302</v>
@@ -9243,22 +9243,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>132.0995883116344</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L18" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M18" t="n">
-        <v>238.8597051383723</v>
+        <v>238.8597051383726</v>
       </c>
       <c r="N18" t="n">
-        <v>135.982401195768</v>
+        <v>224.195221151898</v>
       </c>
       <c r="O18" t="n">
-        <v>242.8748317222146</v>
+        <v>200.9542711289095</v>
       </c>
       <c r="P18" t="n">
-        <v>206.3638740786793</v>
+        <v>120.7977294433387</v>
       </c>
       <c r="Q18" t="n">
         <v>136.1300824528302</v>
@@ -9480,19 +9480,19 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>171.373473584151</v>
+        <v>132.0995883116344</v>
       </c>
       <c r="L21" t="n">
-        <v>120.5398549409796</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M21" t="n">
-        <v>231.137688725388</v>
+        <v>238.8597051383726</v>
       </c>
       <c r="N21" t="n">
-        <v>224.1952211518977</v>
+        <v>224.195221151898</v>
       </c>
       <c r="O21" t="n">
-        <v>242.8748317222146</v>
+        <v>154.6620117660855</v>
       </c>
       <c r="P21" t="n">
         <v>206.3638740786793</v>
@@ -9717,19 +9717,19 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>165.9360666291088</v>
+        <v>132.0995883116344</v>
       </c>
       <c r="L24" t="n">
-        <v>240.3045437566416</v>
+        <v>152.0917238005119</v>
       </c>
       <c r="M24" t="n">
-        <v>116.810406864768</v>
+        <v>238.8597051383723</v>
       </c>
       <c r="N24" t="n">
-        <v>224.1952211518975</v>
+        <v>224.1952211518977</v>
       </c>
       <c r="O24" t="n">
-        <v>242.8748317222144</v>
+        <v>242.8748317222146</v>
       </c>
       <c r="P24" t="n">
         <v>206.3638740786793</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>72.20374278358791</v>
+        <v>179.7047647029788</v>
       </c>
       <c r="C11" t="n">
-        <v>155.8230217063241</v>
+        <v>155.8230217063243</v>
       </c>
       <c r="D11" t="n">
-        <v>143.3896839673725</v>
+        <v>119.6923027247716</v>
       </c>
       <c r="E11" t="n">
-        <v>177.0964363867814</v>
+        <v>177.0964363867816</v>
       </c>
       <c r="F11" t="n">
-        <v>86.76747569155438</v>
+        <v>86.76747569155424</v>
       </c>
       <c r="G11" t="n">
-        <v>102.3956685899673</v>
+        <v>224.4449668635719</v>
       </c>
       <c r="H11" t="n">
-        <v>152.5290299766311</v>
+        <v>152.5290299766313</v>
       </c>
       <c r="I11" t="n">
-        <v>46.21360886079819</v>
+        <v>46.21360886079837</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>32.88999934163193</v>
+        <v>32.88999934163215</v>
       </c>
       <c r="T11" t="n">
-        <v>28.03643329293218</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>55.76720738385723</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>126.4973079342973</v>
+        <v>4.448009660692776</v>
       </c>
       <c r="W11" t="n">
-        <v>143.5139881509121</v>
+        <v>21.46468987730765</v>
       </c>
       <c r="X11" t="n">
-        <v>165.4002386198514</v>
+        <v>165.4002386198516</v>
       </c>
       <c r="Y11" t="n">
-        <v>65.85379346999079</v>
+        <v>187.9030917435953</v>
       </c>
     </row>
     <row r="12">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>174.1845590282434</v>
+        <v>179.7047647029788</v>
       </c>
       <c r="C14" t="n">
-        <v>33.77372343271972</v>
+        <v>155.8230217063243</v>
       </c>
       <c r="D14" t="n">
-        <v>21.34038569376818</v>
+        <v>21.34038569376804</v>
       </c>
       <c r="E14" t="n">
-        <v>177.0964363867814</v>
+        <v>177.0964363867816</v>
       </c>
       <c r="F14" t="n">
-        <v>86.76747569155438</v>
+        <v>162.2421846803325</v>
       </c>
       <c r="G14" t="n">
-        <v>224.4449668635717</v>
+        <v>224.4449668635719</v>
       </c>
       <c r="H14" t="n">
-        <v>152.5290299766311</v>
+        <v>152.5290299766313</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>46.21360886079837</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>32.88999934163195</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>28.03643329293217</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>55.76720738385742</v>
       </c>
       <c r="V14" t="n">
-        <v>126.4973079342973</v>
+        <v>4.448009660692776</v>
       </c>
       <c r="W14" t="n">
-        <v>143.5139881509121</v>
+        <v>21.46468987730765</v>
       </c>
       <c r="X14" t="n">
-        <v>165.4002386198514</v>
+        <v>165.4002386198516</v>
       </c>
       <c r="Y14" t="n">
-        <v>187.9030917435951</v>
+        <v>187.9030917435953</v>
       </c>
     </row>
     <row r="15">
@@ -23735,10 +23735,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.84741111297626e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-1.378452907374594e-12</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -25928,7 +25928,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>837206.2876155828</v>
+        <v>837206.2876155827</v>
       </c>
     </row>
     <row r="6">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>661448.9963823445</v>
+        <v>661448.9963823447</v>
       </c>
       <c r="C2" t="n">
-        <v>661448.9963823445</v>
+        <v>661448.9963823446</v>
       </c>
       <c r="D2" t="n">
-        <v>661448.9963823447</v>
+        <v>661448.9963823446</v>
       </c>
       <c r="E2" t="n">
-        <v>569992.5667653596</v>
+        <v>569992.5667653595</v>
       </c>
       <c r="F2" t="n">
         <v>569992.5667653593</v>
       </c>
       <c r="G2" t="n">
-        <v>662788.9116439017</v>
+        <v>662788.9116439022</v>
       </c>
       <c r="H2" t="n">
-        <v>662788.9116439017</v>
+        <v>662788.911643902</v>
       </c>
       <c r="I2" t="n">
-        <v>662788.9116439018</v>
+        <v>662788.9116439021</v>
       </c>
       <c r="J2" t="n">
-        <v>662788.9116439018</v>
+        <v>662788.9116439021</v>
       </c>
       <c r="K2" t="n">
         <v>662788.911643902</v>
       </c>
       <c r="L2" t="n">
-        <v>662788.9116439017</v>
+        <v>662788.911643902</v>
       </c>
       <c r="M2" t="n">
-        <v>662788.9116439016</v>
+        <v>662788.9116439021</v>
       </c>
       <c r="N2" t="n">
-        <v>662788.9116439016</v>
+        <v>662788.9116439023</v>
       </c>
       <c r="O2" t="n">
-        <v>662788.9116439016</v>
+        <v>662788.9116439021</v>
       </c>
       <c r="P2" t="n">
-        <v>662788.9116439017</v>
+        <v>662788.9116439018</v>
       </c>
     </row>
     <row r="3">
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>101197.8463474378</v>
+        <v>101197.846347438</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>155188.0488107729</v>
+        <v>155188.0488107727</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>101197.8463474378</v>
+        <v>101197.8463474379</v>
       </c>
       <c r="M3" t="n">
-        <v>28140.86133097983</v>
+        <v>28140.86133097994</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>68716.99883240162</v>
+        <v>68716.99883240153</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,25 +26424,25 @@
         <v>456676.6510757953</v>
       </c>
       <c r="E4" t="n">
-        <v>349734.5238460589</v>
+        <v>349734.5238460588</v>
       </c>
       <c r="F4" t="n">
-        <v>349734.5238460589</v>
+        <v>349734.5238460588</v>
       </c>
       <c r="G4" t="n">
+        <v>420238.0338746423</v>
+      </c>
+      <c r="H4" t="n">
+        <v>420238.0338746423</v>
+      </c>
+      <c r="I4" t="n">
         <v>420238.0338746422</v>
-      </c>
-      <c r="H4" t="n">
-        <v>420238.0338746422</v>
-      </c>
-      <c r="I4" t="n">
-        <v>420238.0338746423</v>
       </c>
       <c r="J4" t="n">
         <v>419094.7882741041</v>
       </c>
       <c r="K4" t="n">
-        <v>419094.7882741041</v>
+        <v>419094.7882741042</v>
       </c>
       <c r="L4" t="n">
         <v>419094.7882741041</v>
@@ -26476,16 +26476,16 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>26025.86226334828</v>
+        <v>26025.86226334829</v>
       </c>
       <c r="F5" t="n">
-        <v>26025.86226334828</v>
+        <v>26025.86226334829</v>
       </c>
       <c r="G5" t="n">
-        <v>36660.36444407672</v>
+        <v>36660.36444407675</v>
       </c>
       <c r="H5" t="n">
-        <v>36660.36444407672</v>
+        <v>36660.36444407675</v>
       </c>
       <c r="I5" t="n">
         <v>36660.36444407672</v>
@@ -26497,13 +26497,13 @@
         <v>47580.58365082261</v>
       </c>
       <c r="L5" t="n">
-        <v>47580.58365082261</v>
+        <v>47580.5836508226</v>
       </c>
       <c r="M5" t="n">
-        <v>43117.20390483014</v>
+        <v>43117.20390483012</v>
       </c>
       <c r="N5" t="n">
-        <v>43117.20390483014</v>
+        <v>43117.20390483012</v>
       </c>
       <c r="O5" t="n">
         <v>43896.40868247331</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>171144.7453065492</v>
+        <v>171140.2789223443</v>
       </c>
       <c r="C6" t="n">
-        <v>171144.7453065492</v>
+        <v>171140.2789223442</v>
       </c>
       <c r="D6" t="n">
-        <v>171144.7453065494</v>
+        <v>171140.2789223442</v>
       </c>
       <c r="E6" t="n">
-        <v>-81140.86642861521</v>
+        <v>-81450.18757821036</v>
       </c>
       <c r="F6" t="n">
-        <v>194232.180655952</v>
+        <v>193922.859506357</v>
       </c>
       <c r="G6" t="n">
-        <v>104692.666977745</v>
+        <v>104692.6669777452</v>
       </c>
       <c r="H6" t="n">
-        <v>205890.5133251828</v>
+        <v>205890.5133251829</v>
       </c>
       <c r="I6" t="n">
-        <v>205890.5133251828</v>
+        <v>205890.5133251831</v>
       </c>
       <c r="J6" t="n">
-        <v>40925.49090820216</v>
+        <v>40925.49090820263</v>
       </c>
       <c r="K6" t="n">
         <v>196113.5397189752</v>
       </c>
       <c r="L6" t="n">
-        <v>94915.69337153717</v>
+        <v>94915.69337153729</v>
       </c>
       <c r="M6" t="n">
-        <v>172977.6140339377</v>
+        <v>172977.6140339381</v>
       </c>
       <c r="N6" t="n">
-        <v>201118.4753649175</v>
+        <v>201118.4753649183</v>
       </c>
       <c r="O6" t="n">
-        <v>131522.1784011425</v>
+        <v>131522.178401143</v>
       </c>
       <c r="P6" t="n">
-        <v>200239.1772335442</v>
+        <v>200239.1772335443</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="F2" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="G2" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8797836091521</v>
+        <v>320.879783609152</v>
       </c>
       <c r="I2" t="n">
-        <v>320.8797836091521</v>
+        <v>320.879783609152</v>
       </c>
       <c r="J2" t="n">
         <v>212.9171572481403</v>
@@ -26716,10 +26716,10 @@
         <v>212.9171572481403</v>
       </c>
       <c r="M2" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="N2" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="O2" t="n">
         <v>240.5960845356529</v>
@@ -26796,34 +26796,34 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>122.0492982736043</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="F4" t="n">
-        <v>122.0492982736043</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="G4" t="n">
-        <v>122.0492982736043</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="H4" t="n">
+        <v>122.0492982736047</v>
+      </c>
+      <c r="I4" t="n">
         <v>122.0492982736044</v>
       </c>
-      <c r="I4" t="n">
-        <v>122.0492982736042</v>
-      </c>
       <c r="J4" t="n">
-        <v>450.9395818638968</v>
+        <v>450.9395818638966</v>
       </c>
       <c r="K4" t="n">
-        <v>450.9395818638968</v>
+        <v>450.9395818638966</v>
       </c>
       <c r="L4" t="n">
-        <v>450.9395818638968</v>
+        <v>450.9395818638966</v>
       </c>
       <c r="M4" t="n">
-        <v>328.8902835902924</v>
+        <v>328.890283590292</v>
       </c>
       <c r="N4" t="n">
-        <v>328.8902835902924</v>
+        <v>328.890283590292</v>
       </c>
       <c r="O4" t="n">
         <v>352.07256366516</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>126.4973079342973</v>
+        <v>126.4973079342975</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>86.419849313843</v>
+        <v>86.41984931384289</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>126.4973079342973</v>
+        <v>126.4973079342974</v>
       </c>
       <c r="M2" t="n">
-        <v>35.17607666372479</v>
+        <v>35.17607666372493</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>78.92269993763082</v>
+        <v>78.92269993763057</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>122.0492982736043</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>328.8902835902926</v>
+        <v>328.8902835902923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.18228007486761</v>
+        <v>23.18228007486806</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>126.4973079342973</v>
+        <v>126.4973079342975</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>86.419849313843</v>
+        <v>86.41984931384289</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>122.0492982736043</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="C11" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="D11" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="E11" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="F11" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="G11" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="H11" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="I11" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="J11" t="n">
-        <v>194.3824756748548</v>
+        <v>75.87088762177225</v>
       </c>
       <c r="K11" t="n">
-        <v>5.362241946157056</v>
+        <v>127.4115402197617</v>
       </c>
       <c r="L11" t="n">
-        <v>35.39535867886202</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>38.48644372500144</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>44.04586090844793</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>85.67504484008933</v>
       </c>
       <c r="P11" t="n">
-        <v>13.54892393491829</v>
+        <v>42.26383218661921</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.55297193870601</v>
+        <v>88.55297193870597</v>
       </c>
       <c r="R11" t="n">
         <v>194.2075003718244</v>
       </c>
       <c r="S11" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="T11" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="U11" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="V11" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="W11" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="X11" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="Y11" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
     </row>
     <row r="12">
@@ -28172,7 +28172,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D12" t="n">
-        <v>41.50402161323785</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
         <v>171.8275718397997</v>
@@ -28190,7 +28190,7 @@
         <v>107.1657389737211</v>
       </c>
       <c r="J12" t="n">
-        <v>51.93274503525225</v>
+        <v>51.93274503525224</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28211,31 +28211,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.136586121265651</v>
+        <v>6.13658612126563</v>
       </c>
       <c r="R12" t="n">
-        <v>12.3140393412709</v>
+        <v>134.3633376148752</v>
       </c>
       <c r="S12" t="n">
         <v>191.4841495043256</v>
       </c>
       <c r="T12" t="n">
-        <v>194.3824756748548</v>
+        <v>159.3790095099788</v>
       </c>
       <c r="U12" t="n">
-        <v>194.3824756748548</v>
+        <v>115.1783935072898</v>
       </c>
       <c r="V12" t="n">
-        <v>194.3824756748548</v>
+        <v>118.5996226417976</v>
       </c>
       <c r="W12" t="n">
-        <v>194.3824756748548</v>
+        <v>144.6552853034069</v>
       </c>
       <c r="X12" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="Y12" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
     </row>
     <row r="13">
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>177.6169206649681</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="C13" t="n">
         <v>166.4571809719723</v>
@@ -28254,67 +28254,67 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E13" t="n">
-        <v>141.676141212225</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="F13" t="n">
         <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
-        <v>168.6959616282545</v>
+        <v>183.3547711610805</v>
       </c>
       <c r="H13" t="n">
-        <v>194.3824756748548</v>
+        <v>165.7816030517371</v>
       </c>
       <c r="I13" t="n">
-        <v>164.7082190429236</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="J13" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="K13" t="n">
-        <v>66.47076232176849</v>
+        <v>66.47076232176848</v>
       </c>
       <c r="L13" t="n">
-        <v>31.43620997383531</v>
+        <v>31.43620997383528</v>
       </c>
       <c r="M13" t="n">
-        <v>24.46235891800154</v>
+        <v>24.46235891800152</v>
       </c>
       <c r="N13" t="n">
-        <v>137.8328896397045</v>
+        <v>15.78359136610012</v>
       </c>
       <c r="O13" t="n">
-        <v>67.52186867570465</v>
+        <v>36.79854607717668</v>
       </c>
       <c r="P13" t="n">
-        <v>179.9457505507722</v>
+        <v>179.9457505507725</v>
       </c>
       <c r="Q13" t="n">
-        <v>126.8139378168763</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="R13" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="S13" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="T13" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="U13" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="V13" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="W13" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="X13" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="Y13" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
     </row>
     <row r="14">
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="C14" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="D14" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="E14" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="F14" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="G14" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="H14" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="I14" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="J14" t="n">
-        <v>75.87088762177228</v>
+        <v>75.87088762177225</v>
       </c>
       <c r="K14" t="n">
-        <v>5.362241946157056</v>
+        <v>5.362241946157013</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>38.48644372500144</v>
+        <v>38.48644372500172</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>44.04586090844822</v>
       </c>
       <c r="O14" t="n">
-        <v>85.67504484008904</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>19.99718299907286</v>
+        <v>135.5982222085229</v>
       </c>
       <c r="Q14" t="n">
-        <v>194.3824756748548</v>
+        <v>120.4106203970463</v>
       </c>
       <c r="R14" t="n">
         <v>194.2075003718244</v>
       </c>
       <c r="S14" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="T14" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="U14" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="V14" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="W14" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="X14" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="Y14" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
     </row>
     <row r="15">
@@ -28403,7 +28403,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>54.7011961240614</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
         <v>187.5181515243659</v>
@@ -28424,10 +28424,10 @@
         <v>125.6800758778345</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>107.1657389737211</v>
       </c>
       <c r="J15" t="n">
-        <v>51.93274503525225</v>
+        <v>51.93274503525224</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28448,31 +28448,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.136586121265651</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>134.3633376148752</v>
       </c>
       <c r="S15" t="n">
-        <v>191.4841495043256</v>
+        <v>83.4131872931507</v>
       </c>
       <c r="T15" t="n">
-        <v>183.8799211852352</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="U15" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="V15" t="n">
-        <v>194.3824756748548</v>
+        <v>118.5996226417976</v>
       </c>
       <c r="W15" t="n">
-        <v>194.3824756748548</v>
+        <v>144.6552853034069</v>
       </c>
       <c r="X15" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="Y15" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
     </row>
     <row r="16">
@@ -28491,67 +28491,67 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E16" t="n">
-        <v>141.676141212225</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="F16" t="n">
-        <v>138.9268822184467</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="G16" t="n">
-        <v>168.6959616282545</v>
+        <v>194.3413972548975</v>
       </c>
       <c r="H16" t="n">
-        <v>177.5396683238124</v>
+        <v>165.7816030517371</v>
       </c>
       <c r="I16" t="n">
-        <v>164.7082190429236</v>
+        <v>164.7082190429235</v>
       </c>
       <c r="J16" t="n">
         <v>119.8993073508208</v>
       </c>
       <c r="K16" t="n">
-        <v>188.5200605953728</v>
+        <v>66.47076232176848</v>
       </c>
       <c r="L16" t="n">
-        <v>31.43620997383531</v>
+        <v>31.43620997383528</v>
       </c>
       <c r="M16" t="n">
-        <v>24.46235891800154</v>
+        <v>146.5116571916062</v>
       </c>
       <c r="N16" t="n">
-        <v>137.8328896397045</v>
+        <v>15.78359136610012</v>
       </c>
       <c r="O16" t="n">
-        <v>36.7985460771767</v>
+        <v>158.8478443507814</v>
       </c>
       <c r="P16" t="n">
-        <v>179.9457505507722</v>
+        <v>57.89645227716784</v>
       </c>
       <c r="Q16" t="n">
         <v>126.8139378168763</v>
       </c>
       <c r="R16" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="S16" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="T16" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="U16" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="V16" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="W16" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="X16" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="Y16" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
     </row>
     <row r="17">
@@ -28585,10 +28585,10 @@
         <v>240.5960845356529</v>
       </c>
       <c r="J17" t="n">
-        <v>75.87088762177228</v>
+        <v>75.87088762177225</v>
       </c>
       <c r="K17" t="n">
-        <v>5.362241946157056</v>
+        <v>5.362241946157013</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28600,19 +28600,19 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>85.67504484008904</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>13.54892393491829</v>
+        <v>57.91999206628281</v>
       </c>
       <c r="Q17" t="n">
-        <v>88.55297193870601</v>
+        <v>88.55297193870597</v>
       </c>
       <c r="R17" t="n">
         <v>194.2075003718244</v>
       </c>
       <c r="S17" t="n">
-        <v>279.5758069004265</v>
+        <v>320.879783609152</v>
       </c>
       <c r="T17" t="n">
         <v>320.879783609152</v>
@@ -28643,7 +28643,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>187.5181515243659</v>
+        <v>65.46885325076124</v>
       </c>
       <c r="D18" t="n">
         <v>159.1723150765785</v>
@@ -28655,16 +28655,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>93.17058630737749</v>
+        <v>148.7388631915159</v>
       </c>
       <c r="H18" t="n">
-        <v>3.630777604230142</v>
+        <v>125.6800758778345</v>
       </c>
       <c r="I18" t="n">
         <v>107.1657389737211</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>51.93274503525224</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28685,13 +28685,13 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.136586121265651</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>12.3140393412709</v>
+        <v>134.3633376148752</v>
       </c>
       <c r="S18" t="n">
-        <v>69.43485123072131</v>
+        <v>69.43485123072097</v>
       </c>
       <c r="T18" t="n">
         <v>214.9477822055827</v>
@@ -28700,7 +28700,7 @@
         <v>237.2276917808945</v>
       </c>
       <c r="V18" t="n">
-        <v>240.6489209154022</v>
+        <v>118.5996226417976</v>
       </c>
       <c r="W18" t="n">
         <v>266.7045835770116</v>
@@ -28709,7 +28709,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.3842861340256</v>
+        <v>122.0198503359002</v>
       </c>
     </row>
     <row r="19">
@@ -28740,28 +28740,28 @@
         <v>165.7816030517371</v>
       </c>
       <c r="I19" t="n">
-        <v>164.7082190429236</v>
+        <v>164.7082190429235</v>
       </c>
       <c r="J19" t="n">
         <v>119.8993073508208</v>
       </c>
       <c r="K19" t="n">
-        <v>66.47076232176849</v>
+        <v>66.47076232176848</v>
       </c>
       <c r="L19" t="n">
-        <v>31.43620997383531</v>
+        <v>31.43620997383528</v>
       </c>
       <c r="M19" t="n">
-        <v>24.46235891800154</v>
+        <v>24.46235891800152</v>
       </c>
       <c r="N19" t="n">
-        <v>15.78359136610014</v>
+        <v>15.78359136610012</v>
       </c>
       <c r="O19" t="n">
-        <v>36.7985460771767</v>
+        <v>36.79854607717668</v>
       </c>
       <c r="P19" t="n">
-        <v>57.89645227716785</v>
+        <v>57.89645227716784</v>
       </c>
       <c r="Q19" t="n">
         <v>126.8139378168763</v>
@@ -28798,40 +28798,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>320.8797836091521</v>
+        <v>320.879783609152</v>
       </c>
       <c r="C20" t="n">
-        <v>320.8797836091521</v>
+        <v>320.879783609152</v>
       </c>
       <c r="D20" t="n">
-        <v>320.8797836091521</v>
+        <v>320.879783609152</v>
       </c>
       <c r="E20" t="n">
-        <v>320.8797836091521</v>
+        <v>320.879783609152</v>
       </c>
       <c r="F20" t="n">
-        <v>320.8797836091521</v>
+        <v>320.879783609152</v>
       </c>
       <c r="G20" t="n">
-        <v>320.8797836091521</v>
+        <v>320.879783609152</v>
       </c>
       <c r="H20" t="n">
-        <v>320.8797836091521</v>
+        <v>320.879783609152</v>
       </c>
       <c r="I20" t="n">
         <v>240.5960845356529</v>
       </c>
       <c r="J20" t="n">
-        <v>75.87088762177228</v>
+        <v>75.87088762177225</v>
       </c>
       <c r="K20" t="n">
-        <v>5.362241946157056</v>
+        <v>127.4115402197617</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>38.48644372500145</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -28840,10 +28840,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>42.31075638350553</v>
+        <v>127.9388770267085</v>
       </c>
       <c r="Q20" t="n">
-        <v>88.55297193870601</v>
+        <v>88.55297193870597</v>
       </c>
       <c r="R20" t="n">
         <v>194.2075003718244</v>
@@ -28852,22 +28852,22 @@
         <v>227.2724750164867</v>
       </c>
       <c r="T20" t="n">
-        <v>320.8797836091521</v>
+        <v>222.4189089677869</v>
       </c>
       <c r="U20" t="n">
-        <v>320.8797836091521</v>
+        <v>250.149683058712</v>
       </c>
       <c r="V20" t="n">
-        <v>320.8797836091521</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W20" t="n">
-        <v>320.8797836091521</v>
+        <v>320.879783609152</v>
       </c>
       <c r="X20" t="n">
-        <v>320.8797836091521</v>
+        <v>320.879783609152</v>
       </c>
       <c r="Y20" t="n">
-        <v>320.8797836091521</v>
+        <v>320.879783609152</v>
       </c>
     </row>
     <row r="21">
@@ -28877,16 +28877,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>176.7504943976657</v>
+        <v>54.70119612406106</v>
       </c>
       <c r="C21" t="n">
-        <v>80.01712960497527</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>37.12301680297419</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>49.77827356619532</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
         <v>158.8234391199283</v>
@@ -28901,7 +28901,7 @@
         <v>107.1657389737211</v>
       </c>
       <c r="J21" t="n">
-        <v>51.93274503525225</v>
+        <v>51.93274503525224</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28922,10 +28922,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.136586121265651</v>
+        <v>6.13658612126563</v>
       </c>
       <c r="R21" t="n">
-        <v>134.3633376148752</v>
+        <v>12.31403934127053</v>
       </c>
       <c r="S21" t="n">
         <v>191.4841495043256</v>
@@ -28943,10 +28943,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>95.26361616586625</v>
+        <v>109.8118925200796</v>
       </c>
       <c r="Y21" t="n">
-        <v>223.3842861340256</v>
+        <v>101.3349878604209</v>
       </c>
     </row>
     <row r="22">
@@ -28977,28 +28977,28 @@
         <v>165.7816030517371</v>
       </c>
       <c r="I22" t="n">
-        <v>164.7082190429236</v>
+        <v>164.7082190429235</v>
       </c>
       <c r="J22" t="n">
         <v>119.8993073508208</v>
       </c>
       <c r="K22" t="n">
-        <v>66.47076232176849</v>
+        <v>66.47076232176848</v>
       </c>
       <c r="L22" t="n">
-        <v>31.43620997383531</v>
+        <v>31.43620997383528</v>
       </c>
       <c r="M22" t="n">
-        <v>24.46235891800154</v>
+        <v>24.46235891800152</v>
       </c>
       <c r="N22" t="n">
-        <v>15.78359136610014</v>
+        <v>15.78359136610012</v>
       </c>
       <c r="O22" t="n">
-        <v>36.7985460771767</v>
+        <v>36.79854607717668</v>
       </c>
       <c r="P22" t="n">
-        <v>57.89645227716785</v>
+        <v>57.89645227716784</v>
       </c>
       <c r="Q22" t="n">
         <v>126.8139378168763</v>
@@ -29035,34 +29035,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>320.8797836091521</v>
+        <v>320.879783609152</v>
       </c>
       <c r="C23" t="n">
-        <v>320.8797836091521</v>
+        <v>320.879783609152</v>
       </c>
       <c r="D23" t="n">
-        <v>320.8797836091521</v>
+        <v>320.879783609152</v>
       </c>
       <c r="E23" t="n">
-        <v>320.8797836091521</v>
+        <v>320.879783609152</v>
       </c>
       <c r="F23" t="n">
-        <v>320.8797836091521</v>
+        <v>320.879783609152</v>
       </c>
       <c r="G23" t="n">
-        <v>320.8797836091521</v>
+        <v>320.879783609152</v>
       </c>
       <c r="H23" t="n">
-        <v>320.8797836091521</v>
+        <v>320.879783609152</v>
       </c>
       <c r="I23" t="n">
         <v>240.5960845356529</v>
       </c>
       <c r="J23" t="n">
-        <v>143.1191637953603</v>
+        <v>75.87088762177225</v>
       </c>
       <c r="K23" t="n">
-        <v>5.362241946157056</v>
+        <v>5.362241946157013</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29074,37 +29074,37 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>85.67504484008906</v>
       </c>
       <c r="P23" t="n">
-        <v>13.54892393491829</v>
+        <v>135.5982222085227</v>
       </c>
       <c r="Q23" t="n">
-        <v>88.55297193870601</v>
+        <v>88.55297193870597</v>
       </c>
       <c r="R23" t="n">
-        <v>194.2075003718244</v>
+        <v>222.9224086235247</v>
       </c>
       <c r="S23" t="n">
         <v>227.2724750164867</v>
       </c>
       <c r="T23" t="n">
-        <v>320.8797836091521</v>
+        <v>222.4189089677869</v>
       </c>
       <c r="U23" t="n">
-        <v>320.8797836091521</v>
+        <v>250.149683058712</v>
       </c>
       <c r="V23" t="n">
-        <v>320.8797836091521</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W23" t="n">
-        <v>320.8797836091521</v>
+        <v>320.879783609152</v>
       </c>
       <c r="X23" t="n">
-        <v>320.8797836091521</v>
+        <v>320.879783609152</v>
       </c>
       <c r="Y23" t="n">
-        <v>320.8797836091521</v>
+        <v>320.879783609152</v>
       </c>
     </row>
     <row r="24">
@@ -29114,13 +29114,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>54.70119612406155</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>37.12301680297436</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
         <v>171.8275718397997</v>
@@ -29138,7 +29138,7 @@
         <v>107.1657389737211</v>
       </c>
       <c r="J24" t="n">
-        <v>51.93274503525225</v>
+        <v>51.93274503525224</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29162,25 +29162,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>134.3633376148752</v>
+        <v>12.3140393412708</v>
       </c>
       <c r="S24" t="n">
         <v>191.4841495043256</v>
       </c>
       <c r="T24" t="n">
-        <v>214.9477822055827</v>
+        <v>92.89848393197828</v>
       </c>
       <c r="U24" t="n">
-        <v>237.2276917808945</v>
+        <v>115.1783935072901</v>
       </c>
       <c r="V24" t="n">
-        <v>118.5996226417981</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
-        <v>165.3401477788868</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>115.9484786413455</v>
       </c>
       <c r="Y24" t="n">
         <v>223.3842861340256</v>
@@ -29214,28 +29214,28 @@
         <v>165.7816030517371</v>
       </c>
       <c r="I25" t="n">
-        <v>164.7082190429236</v>
+        <v>164.7082190429235</v>
       </c>
       <c r="J25" t="n">
         <v>119.8993073508208</v>
       </c>
       <c r="K25" t="n">
-        <v>66.47076232176849</v>
+        <v>66.47076232176848</v>
       </c>
       <c r="L25" t="n">
-        <v>31.43620997383531</v>
+        <v>31.43620997383528</v>
       </c>
       <c r="M25" t="n">
-        <v>24.46235891800154</v>
+        <v>24.46235891800152</v>
       </c>
       <c r="N25" t="n">
-        <v>15.78359136610014</v>
+        <v>15.78359136610012</v>
       </c>
       <c r="O25" t="n">
-        <v>36.7985460771767</v>
+        <v>36.79854607717668</v>
       </c>
       <c r="P25" t="n">
-        <v>57.89645227716785</v>
+        <v>57.89645227716784</v>
       </c>
       <c r="Q25" t="n">
         <v>126.8139378168763</v>
@@ -29308,7 +29308,7 @@
         <v>212.9171572481403</v>
       </c>
       <c r="N26" t="n">
-        <v>212.9171572481407</v>
+        <v>212.9171572481394</v>
       </c>
       <c r="O26" t="n">
         <v>212.9171572481403</v>
@@ -29357,13 +29357,13 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
-        <v>120.3315695037787</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
         <v>148.7388631915159</v>
@@ -29375,7 +29375,7 @@
         <v>107.1657389737211</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>51.93274503525224</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29396,7 +29396,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.136586121265651</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>134.3633376148752</v>
@@ -29405,22 +29405,22 @@
         <v>191.4841495043256</v>
       </c>
       <c r="T27" t="n">
-        <v>212.9171572481403</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>212.9171572481403</v>
       </c>
       <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
         <v>212.9171572481403</v>
-      </c>
-      <c r="W27" t="n">
-        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>212.9171572481403</v>
       </c>
       <c r="Y27" t="n">
-        <v>212.9171572481403</v>
+        <v>10.54639904976574</v>
       </c>
     </row>
     <row r="28">
@@ -29445,34 +29445,34 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>168.6959616282545</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="H28" t="n">
         <v>165.7816030517371</v>
       </c>
       <c r="I28" t="n">
-        <v>164.7082190429236</v>
+        <v>164.7082190429235</v>
       </c>
       <c r="J28" t="n">
         <v>119.8993073508208</v>
       </c>
       <c r="K28" t="n">
-        <v>66.47076232176849</v>
+        <v>82.64947243186806</v>
       </c>
       <c r="L28" t="n">
-        <v>31.43620997383531</v>
+        <v>31.43620997383528</v>
       </c>
       <c r="M28" t="n">
-        <v>24.46235891800154</v>
+        <v>24.46235891800152</v>
       </c>
       <c r="N28" t="n">
+        <v>15.78359136610012</v>
+      </c>
+      <c r="O28" t="n">
         <v>212.9171572481403</v>
       </c>
-      <c r="O28" t="n">
-        <v>76.18349709608587</v>
-      </c>
       <c r="P28" t="n">
-        <v>57.89645227716785</v>
+        <v>57.89645227716784</v>
       </c>
       <c r="Q28" t="n">
         <v>126.8139378168763</v>
@@ -29588,7 +29588,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>187.5181515243659</v>
@@ -29597,7 +29597,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>158.8234391199283</v>
@@ -29612,7 +29612,7 @@
         <v>107.1657389737211</v>
       </c>
       <c r="J30" t="n">
-        <v>51.93274503525225</v>
+        <v>51.93274503525224</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29633,19 +29633,19 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.136586121265651</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>134.3633376148752</v>
+        <v>67.65348840582557</v>
       </c>
       <c r="S30" t="n">
         <v>191.4841495043256</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="U30" t="n">
-        <v>4.409812928500543</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="V30" t="n">
         <v>212.9171572481403</v>
@@ -29676,7 +29676,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E31" t="n">
-        <v>212.9171572481403</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F31" t="n">
         <v>138.9268822184467</v>
@@ -29688,34 +29688,34 @@
         <v>165.7816030517371</v>
       </c>
       <c r="I31" t="n">
-        <v>164.7082190429236</v>
+        <v>164.7082190429235</v>
       </c>
       <c r="J31" t="n">
         <v>119.8993073508208</v>
       </c>
       <c r="K31" t="n">
-        <v>66.47076232176849</v>
+        <v>66.47076232176848</v>
       </c>
       <c r="L31" t="n">
-        <v>31.43620997383531</v>
+        <v>31.43620997383528</v>
       </c>
       <c r="M31" t="n">
-        <v>24.46235891800154</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="N31" t="n">
-        <v>15.78359136610014</v>
+        <v>54.14369042304531</v>
       </c>
       <c r="O31" t="n">
-        <v>47.05534197123828</v>
+        <v>36.79854607717668</v>
       </c>
       <c r="P31" t="n">
-        <v>212.9171572481403</v>
+        <v>57.89645227716784</v>
       </c>
       <c r="Q31" t="n">
         <v>126.8139378168763</v>
       </c>
       <c r="R31" t="n">
-        <v>203.2135377342752</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="S31" t="n">
         <v>212.9171572481403</v>
@@ -29782,7 +29782,7 @@
         <v>212.9171572481403</v>
       </c>
       <c r="N32" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481394</v>
       </c>
       <c r="O32" t="n">
         <v>212.9171572481403</v>
@@ -29791,7 +29791,7 @@
         <v>212.9171572481403</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.91715724814</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="R32" t="n">
         <v>212.9171572481403</v>
@@ -29828,7 +29828,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>113.3741448196012</v>
       </c>
       <c r="D33" t="n">
         <v>159.1723150765785</v>
@@ -29837,7 +29837,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
         <v>148.7388631915159</v>
@@ -29873,25 +29873,25 @@
         <v>6.136586121265633</v>
       </c>
       <c r="R33" t="n">
-        <v>134.3633376148752</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>191.4841495043256</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="U33" t="n">
         <v>212.9171572481403</v>
       </c>
       <c r="V33" t="n">
-        <v>212.9171572481403</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>212.9171572481403</v>
       </c>
       <c r="X33" t="n">
-        <v>137.8342463246542</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>212.9171572481403</v>
@@ -29910,13 +29910,13 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D34" t="n">
-        <v>212.9171572481403</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
         <v>141.676141212225</v>
       </c>
       <c r="F34" t="n">
-        <v>138.9268822184467</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="G34" t="n">
         <v>168.6959616282545</v>
@@ -29925,10 +29925,10 @@
         <v>165.7816030517371</v>
       </c>
       <c r="I34" t="n">
-        <v>212.9171572481403</v>
+        <v>164.7082190429235</v>
       </c>
       <c r="J34" t="n">
-        <v>212.9171572481403</v>
+        <v>119.8993073508208</v>
       </c>
       <c r="K34" t="n">
         <v>66.47076232176849</v>
@@ -29940,13 +29940,13 @@
         <v>24.46235891800152</v>
       </c>
       <c r="N34" t="n">
-        <v>43.34081316708357</v>
+        <v>23.29112826638334</v>
       </c>
       <c r="O34" t="n">
         <v>36.79854607717668</v>
       </c>
       <c r="P34" t="n">
-        <v>57.89645227716784</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="Q34" t="n">
         <v>126.8139378168763</v>
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="C35" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="D35" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="E35" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="F35" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="G35" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="H35" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="I35" t="n">
-        <v>240.5960845356529</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="J35" t="n">
-        <v>248.0932339118651</v>
+        <v>75.87088762177225</v>
       </c>
       <c r="K35" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="M35" t="n">
-        <v>245.3274290416895</v>
+        <v>49.11029258588921</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="P35" t="n">
-        <v>85.91441139434262</v>
+        <v>13.54892393491825</v>
       </c>
       <c r="Q35" t="n">
-        <v>88.55297193870598</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="R35" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="S35" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="T35" t="n">
-        <v>222.4189089677869</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="U35" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="V35" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="W35" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="X35" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="Y35" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
     </row>
     <row r="36">
@@ -30062,10 +30062,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>18.37425683567784</v>
       </c>
       <c r="C36" t="n">
-        <v>101.1607342292922</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
         <v>159.1723150765785</v>
@@ -30107,10 +30107,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.136586121265633</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>134.3633376148752</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -30119,19 +30119,19 @@
         <v>214.9477822055827</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>237.2276917808945</v>
       </c>
       <c r="V36" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>248.0932339118651</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="37">
@@ -30147,7 +30147,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D37" t="n">
-        <v>205.2917227116249</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E37" t="n">
         <v>141.676141212225</v>
@@ -30168,7 +30168,7 @@
         <v>119.8993073508208</v>
       </c>
       <c r="K37" t="n">
-        <v>66.47076232176849</v>
+        <v>150.9320761576977</v>
       </c>
       <c r="L37" t="n">
         <v>31.43620997383529</v>
@@ -30195,16 +30195,16 @@
         <v>235.3541616935673</v>
       </c>
       <c r="T37" t="n">
-        <v>248.0932339118651</v>
+        <v>223.7409925368498</v>
       </c>
       <c r="U37" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W37" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="X37" t="n">
         <v>221.9194554082425</v>
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="C38" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="D38" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="E38" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="F38" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="G38" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="H38" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="I38" t="n">
-        <v>248.0932339118651</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="J38" t="n">
-        <v>248.0932339118651</v>
+        <v>75.87088762177225</v>
       </c>
       <c r="K38" t="n">
         <v>5.36224194615702</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>245.327429041689</v>
       </c>
       <c r="N38" t="n">
-        <v>248.0932339118651</v>
+        <v>67.55992882103925</v>
       </c>
       <c r="O38" t="n">
-        <v>248.0932339118651</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="Q38" t="n">
-        <v>187.0535957364664</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="R38" t="n">
-        <v>194.2075003718244</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="S38" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="T38" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="U38" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="V38" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="W38" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="X38" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="Y38" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
     </row>
     <row r="39">
@@ -30299,7 +30299,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>144.7022437029542</v>
       </c>
       <c r="C39" t="n">
         <v>187.5181515243659</v>
@@ -30314,7 +30314,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>148.7388631915159</v>
       </c>
       <c r="H39" t="n">
         <v>125.6800758778345</v>
@@ -30344,7 +30344,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.136586121265633</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>134.3633376148752</v>
@@ -30353,19 +30353,19 @@
         <v>191.4841495043256</v>
       </c>
       <c r="T39" t="n">
-        <v>19.2965095199155</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2276917808945</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>248.0932339118651</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
         <v>223.3842861340256</v>
@@ -30414,7 +30414,7 @@
         <v>24.46235891800152</v>
       </c>
       <c r="N40" t="n">
-        <v>15.78359136610012</v>
+        <v>97.26068647461396</v>
       </c>
       <c r="O40" t="n">
         <v>36.79854607717668</v>
@@ -30423,7 +30423,7 @@
         <v>57.89645227716784</v>
       </c>
       <c r="Q40" t="n">
-        <v>211.2752516528058</v>
+        <v>126.8139378168763</v>
       </c>
       <c r="R40" t="n">
         <v>203.2135377342752</v>
@@ -30435,13 +30435,13 @@
         <v>223.7409925368498</v>
       </c>
       <c r="U40" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="V40" t="n">
-        <v>245.1090151844499</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="W40" t="n">
-        <v>248.0932339118651</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="X40" t="n">
         <v>221.9194554082425</v>
@@ -30490,28 +30490,28 @@
         <v>240.5960845356529</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>20.8628988795837</v>
+      </c>
+      <c r="P41" t="n">
         <v>240.5960845356529</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>233.2475748192739</v>
       </c>
       <c r="Q41" t="n">
         <v>88.55297193870598</v>
       </c>
       <c r="R41" t="n">
-        <v>240.5960845356529</v>
+        <v>194.2075003718244</v>
       </c>
       <c r="S41" t="n">
         <v>227.2724750164867</v>
       </c>
       <c r="T41" t="n">
-        <v>222.4189089677869</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="U41" t="n">
         <v>240.5960845356529</v>
@@ -30536,10 +30536,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
         <v>159.1723150765785</v>
@@ -30560,7 +30560,7 @@
         <v>107.1657389737211</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>51.93274503525224</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30587,10 +30587,10 @@
         <v>134.3633376148752</v>
       </c>
       <c r="S42" t="n">
-        <v>117.3780660389044</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>214.9477822055827</v>
+        <v>156.720541822856</v>
       </c>
       <c r="U42" t="n">
         <v>237.2276917808945</v>
@@ -30599,7 +30599,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>240.5960845356529</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
@@ -30642,7 +30642,7 @@
         <v>119.8993073508208</v>
       </c>
       <c r="K43" t="n">
-        <v>165.5934584898001</v>
+        <v>66.47076232176849</v>
       </c>
       <c r="L43" t="n">
         <v>31.43620997383529</v>
@@ -30651,7 +30651,7 @@
         <v>24.46235891800152</v>
       </c>
       <c r="N43" t="n">
-        <v>15.78359136610012</v>
+        <v>120.1482103762173</v>
       </c>
       <c r="O43" t="n">
         <v>36.79854607717668</v>
@@ -30666,7 +30666,7 @@
         <v>203.2135377342752</v>
       </c>
       <c r="S43" t="n">
-        <v>240.5960845356529</v>
+        <v>235.3541616935673</v>
       </c>
       <c r="T43" t="n">
         <v>223.7409925368498</v>
@@ -30718,19 +30718,19 @@
         <v>240.5960845356529</v>
       </c>
       <c r="J44" t="n">
-        <v>75.87088762177225</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="K44" t="n">
-        <v>214.4288740491754</v>
+        <v>5.362241946157006</v>
       </c>
       <c r="L44" t="n">
         <v>240.5960845356529</v>
       </c>
       <c r="M44" t="n">
+        <v>196.3845477860847</v>
+      </c>
+      <c r="N44" t="n">
         <v>240.5960845356529</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -30739,7 +30739,7 @@
         <v>240.5960845356529</v>
       </c>
       <c r="Q44" t="n">
-        <v>240.5960845356529</v>
+        <v>88.55297193870597</v>
       </c>
       <c r="R44" t="n">
         <v>240.5960845356529</v>
@@ -30773,22 +30773,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>81.79973940450718</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>44.06155483815836</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>148.7388631915159</v>
       </c>
       <c r="H45" t="n">
         <v>125.6800758778345</v>
@@ -30797,7 +30797,7 @@
         <v>107.1657389737211</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>51.93274503525224</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,13 +30818,13 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.136586121265626</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>134.3633376148752</v>
       </c>
       <c r="S45" t="n">
-        <v>191.4841495043256</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -30842,7 +30842,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -30870,13 +30870,13 @@
         <v>168.6959616282545</v>
       </c>
       <c r="H46" t="n">
-        <v>240.5960845356529</v>
+        <v>165.7816030517371</v>
       </c>
       <c r="I46" t="n">
         <v>164.7082190429235</v>
       </c>
       <c r="J46" t="n">
-        <v>149.4494448770222</v>
+        <v>119.8993073508208</v>
       </c>
       <c r="K46" t="n">
         <v>66.47076232176848</v>
@@ -30897,7 +30897,7 @@
         <v>57.89645227716784</v>
       </c>
       <c r="Q46" t="n">
-        <v>126.8139378168763</v>
+        <v>231.1785568269934</v>
       </c>
       <c r="R46" t="n">
         <v>203.2135377342752</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4174495561852888</v>
+        <v>0.4174495561852891</v>
       </c>
       <c r="H11" t="n">
-        <v>4.27520526728259</v>
+        <v>4.275205267282593</v>
       </c>
       <c r="I11" t="n">
-        <v>16.09372401483336</v>
+        <v>16.09372401483337</v>
       </c>
       <c r="J11" t="n">
-        <v>35.43050926928118</v>
+        <v>35.43050926928122</v>
       </c>
       <c r="K11" t="n">
-        <v>53.10114898260447</v>
+        <v>53.10114898260451</v>
       </c>
       <c r="L11" t="n">
-        <v>65.87667083771001</v>
+        <v>65.87667083771007</v>
       </c>
       <c r="M11" t="n">
-        <v>73.30048938252014</v>
+        <v>73.3004893825202</v>
       </c>
       <c r="N11" t="n">
-        <v>74.4865679340316</v>
+        <v>74.48656793403165</v>
       </c>
       <c r="O11" t="n">
-        <v>70.33555390971412</v>
+        <v>70.33555390971418</v>
       </c>
       <c r="P11" t="n">
-        <v>60.0297679913898</v>
+        <v>60.02976799138985</v>
       </c>
       <c r="Q11" t="n">
-        <v>45.07985576050413</v>
+        <v>45.07985576050417</v>
       </c>
       <c r="R11" t="n">
-        <v>26.22261568372417</v>
+        <v>26.22261568372419</v>
       </c>
       <c r="S11" t="n">
-        <v>9.512631761572278</v>
+        <v>9.512631761572285</v>
       </c>
       <c r="T11" t="n">
-        <v>1.827385432201102</v>
+        <v>1.827385432201104</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03339596449482309</v>
+        <v>0.03339596449482312</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2233552035759309</v>
+        <v>0.2233552035759311</v>
       </c>
       <c r="H12" t="n">
-        <v>2.15714104506228</v>
+        <v>2.157141045062282</v>
       </c>
       <c r="I12" t="n">
-        <v>7.690080473995866</v>
+        <v>7.690080473995872</v>
       </c>
       <c r="J12" t="n">
-        <v>21.10216859749617</v>
+        <v>21.10216859749619</v>
       </c>
       <c r="K12" t="n">
-        <v>36.06696723708354</v>
+        <v>36.06696723708357</v>
       </c>
       <c r="L12" t="n">
-        <v>48.49648839046692</v>
+        <v>48.49648839046696</v>
       </c>
       <c r="M12" t="n">
-        <v>56.5931145200944</v>
+        <v>56.59311452009445</v>
       </c>
       <c r="N12" t="n">
-        <v>58.09096586337336</v>
+        <v>58.0909658633734</v>
       </c>
       <c r="O12" t="n">
-        <v>53.14188477361193</v>
+        <v>53.14188477361198</v>
       </c>
       <c r="P12" t="n">
-        <v>42.6510476021442</v>
+        <v>42.65104760214424</v>
       </c>
       <c r="Q12" t="n">
-        <v>28.51109581085041</v>
+        <v>28.51109581085043</v>
       </c>
       <c r="R12" t="n">
-        <v>13.86761518342491</v>
+        <v>13.86761518342492</v>
       </c>
       <c r="S12" t="n">
-        <v>4.148724943614327</v>
+        <v>4.14872494361433</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9002782109047385</v>
+        <v>0.9002782109047393</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01469442128789019</v>
+        <v>0.01469442128789021</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1872534996904913</v>
+        <v>0.1872534996904915</v>
       </c>
       <c r="H13" t="n">
-        <v>1.664853842702733</v>
+        <v>1.664853842702735</v>
       </c>
       <c r="I13" t="n">
-        <v>5.631223427055868</v>
+        <v>5.631223427055873</v>
       </c>
       <c r="J13" t="n">
-        <v>13.23882242811774</v>
+        <v>13.23882242811775</v>
       </c>
       <c r="K13" t="n">
-        <v>21.75545205494981</v>
+        <v>21.75545205494982</v>
       </c>
       <c r="L13" t="n">
-        <v>27.83948849034814</v>
+        <v>27.83948849034817</v>
       </c>
       <c r="M13" t="n">
-        <v>29.35283722875583</v>
+        <v>29.35283722875586</v>
       </c>
       <c r="N13" t="n">
-        <v>28.65489236627312</v>
+        <v>28.65489236627314</v>
       </c>
       <c r="O13" t="n">
-        <v>26.46743102897964</v>
+        <v>26.46743102897966</v>
       </c>
       <c r="P13" t="n">
-        <v>22.6474596352936</v>
+        <v>22.64745963529361</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.67992714226469</v>
+        <v>15.6799271422647</v>
       </c>
       <c r="R13" t="n">
-        <v>8.419598267901545</v>
+        <v>8.419598267901552</v>
       </c>
       <c r="S13" t="n">
-        <v>3.263317808242471</v>
+        <v>3.263317808242473</v>
       </c>
       <c r="T13" t="n">
-        <v>0.80008313504119</v>
+        <v>0.8000831350411907</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01021382725584499</v>
+        <v>0.010213827255845</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4174495561852888</v>
+        <v>0.4174495561852891</v>
       </c>
       <c r="H14" t="n">
-        <v>4.27520526728259</v>
+        <v>4.275205267282593</v>
       </c>
       <c r="I14" t="n">
-        <v>16.09372401483336</v>
+        <v>16.09372401483337</v>
       </c>
       <c r="J14" t="n">
-        <v>35.43050926928118</v>
+        <v>35.43050926928122</v>
       </c>
       <c r="K14" t="n">
-        <v>53.10114898260447</v>
+        <v>53.10114898260451</v>
       </c>
       <c r="L14" t="n">
-        <v>65.87667083771001</v>
+        <v>65.87667083771007</v>
       </c>
       <c r="M14" t="n">
-        <v>73.30048938252014</v>
+        <v>73.3004893825202</v>
       </c>
       <c r="N14" t="n">
-        <v>74.4865679340316</v>
+        <v>74.48656793403165</v>
       </c>
       <c r="O14" t="n">
-        <v>70.33555390971412</v>
+        <v>70.33555390971418</v>
       </c>
       <c r="P14" t="n">
-        <v>60.0297679913898</v>
+        <v>60.02976799138985</v>
       </c>
       <c r="Q14" t="n">
-        <v>45.07985576050413</v>
+        <v>45.07985576050417</v>
       </c>
       <c r="R14" t="n">
-        <v>26.22261568372417</v>
+        <v>26.22261568372419</v>
       </c>
       <c r="S14" t="n">
-        <v>9.512631761572278</v>
+        <v>9.512631761572285</v>
       </c>
       <c r="T14" t="n">
-        <v>1.827385432201102</v>
+        <v>1.827385432201104</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03339596449482309</v>
+        <v>0.03339596449482312</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2233552035759309</v>
+        <v>0.2233552035759311</v>
       </c>
       <c r="H15" t="n">
-        <v>2.15714104506228</v>
+        <v>2.157141045062282</v>
       </c>
       <c r="I15" t="n">
-        <v>7.690080473995866</v>
+        <v>7.690080473995872</v>
       </c>
       <c r="J15" t="n">
-        <v>21.10216859749617</v>
+        <v>21.10216859749619</v>
       </c>
       <c r="K15" t="n">
-        <v>36.06696723708354</v>
+        <v>36.06696723708357</v>
       </c>
       <c r="L15" t="n">
-        <v>48.49648839046692</v>
+        <v>48.49648839046696</v>
       </c>
       <c r="M15" t="n">
-        <v>56.5931145200944</v>
+        <v>56.59311452009445</v>
       </c>
       <c r="N15" t="n">
-        <v>58.09096586337336</v>
+        <v>58.0909658633734</v>
       </c>
       <c r="O15" t="n">
-        <v>53.14188477361193</v>
+        <v>53.14188477361198</v>
       </c>
       <c r="P15" t="n">
-        <v>42.6510476021442</v>
+        <v>42.65104760214424</v>
       </c>
       <c r="Q15" t="n">
-        <v>28.51109581085041</v>
+        <v>28.51109581085043</v>
       </c>
       <c r="R15" t="n">
-        <v>13.86761518342491</v>
+        <v>13.86761518342492</v>
       </c>
       <c r="S15" t="n">
-        <v>4.148724943614327</v>
+        <v>4.14872494361433</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9002782109047385</v>
+        <v>0.9002782109047393</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01469442128789019</v>
+        <v>0.01469442128789021</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1872534996904913</v>
+        <v>0.1872534996904915</v>
       </c>
       <c r="H16" t="n">
-        <v>1.664853842702733</v>
+        <v>1.664853842702735</v>
       </c>
       <c r="I16" t="n">
-        <v>5.631223427055868</v>
+        <v>5.631223427055873</v>
       </c>
       <c r="J16" t="n">
-        <v>13.23882242811774</v>
+        <v>13.23882242811775</v>
       </c>
       <c r="K16" t="n">
-        <v>21.75545205494981</v>
+        <v>21.75545205494982</v>
       </c>
       <c r="L16" t="n">
-        <v>27.83948849034814</v>
+        <v>27.83948849034817</v>
       </c>
       <c r="M16" t="n">
-        <v>29.35283722875583</v>
+        <v>29.35283722875586</v>
       </c>
       <c r="N16" t="n">
-        <v>28.65489236627312</v>
+        <v>28.65489236627314</v>
       </c>
       <c r="O16" t="n">
-        <v>26.46743102897964</v>
+        <v>26.46743102897966</v>
       </c>
       <c r="P16" t="n">
-        <v>22.6474596352936</v>
+        <v>22.64745963529361</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.67992714226469</v>
+        <v>15.6799271422647</v>
       </c>
       <c r="R16" t="n">
-        <v>8.419598267901545</v>
+        <v>8.419598267901552</v>
       </c>
       <c r="S16" t="n">
-        <v>3.263317808242471</v>
+        <v>3.263317808242473</v>
       </c>
       <c r="T16" t="n">
-        <v>0.80008313504119</v>
+        <v>0.8000831350411907</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01021382725584499</v>
+        <v>0.010213827255845</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4174495561852888</v>
+        <v>0.4174495561852891</v>
       </c>
       <c r="H17" t="n">
-        <v>4.27520526728259</v>
+        <v>4.275205267282593</v>
       </c>
       <c r="I17" t="n">
-        <v>16.09372401483336</v>
+        <v>16.09372401483337</v>
       </c>
       <c r="J17" t="n">
-        <v>35.43050926928118</v>
+        <v>35.43050926928122</v>
       </c>
       <c r="K17" t="n">
-        <v>53.10114898260447</v>
+        <v>53.10114898260451</v>
       </c>
       <c r="L17" t="n">
-        <v>65.87667083771001</v>
+        <v>65.87667083771007</v>
       </c>
       <c r="M17" t="n">
-        <v>73.30048938252014</v>
+        <v>73.3004893825202</v>
       </c>
       <c r="N17" t="n">
-        <v>74.4865679340316</v>
+        <v>74.48656793403165</v>
       </c>
       <c r="O17" t="n">
-        <v>70.33555390971412</v>
+        <v>70.33555390971418</v>
       </c>
       <c r="P17" t="n">
-        <v>60.0297679913898</v>
+        <v>60.02976799138985</v>
       </c>
       <c r="Q17" t="n">
-        <v>45.07985576050413</v>
+        <v>45.07985576050417</v>
       </c>
       <c r="R17" t="n">
-        <v>26.22261568372417</v>
+        <v>26.22261568372419</v>
       </c>
       <c r="S17" t="n">
-        <v>9.512631761572278</v>
+        <v>9.512631761572285</v>
       </c>
       <c r="T17" t="n">
-        <v>1.827385432201102</v>
+        <v>1.827385432201104</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03339596449482309</v>
+        <v>0.03339596449482312</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2233552035759309</v>
+        <v>0.2233552035759311</v>
       </c>
       <c r="H18" t="n">
-        <v>2.15714104506228</v>
+        <v>2.157141045062282</v>
       </c>
       <c r="I18" t="n">
-        <v>7.690080473995866</v>
+        <v>7.690080473995872</v>
       </c>
       <c r="J18" t="n">
-        <v>21.10216859749617</v>
+        <v>21.10216859749619</v>
       </c>
       <c r="K18" t="n">
-        <v>36.06696723708354</v>
+        <v>36.06696723708357</v>
       </c>
       <c r="L18" t="n">
-        <v>48.49648839046692</v>
+        <v>48.49648839046696</v>
       </c>
       <c r="M18" t="n">
-        <v>56.5931145200944</v>
+        <v>56.59311452009445</v>
       </c>
       <c r="N18" t="n">
-        <v>58.09096586337336</v>
+        <v>58.0909658633734</v>
       </c>
       <c r="O18" t="n">
-        <v>53.14188477361193</v>
+        <v>53.14188477361198</v>
       </c>
       <c r="P18" t="n">
-        <v>42.6510476021442</v>
+        <v>42.65104760214424</v>
       </c>
       <c r="Q18" t="n">
-        <v>28.51109581085041</v>
+        <v>28.51109581085043</v>
       </c>
       <c r="R18" t="n">
-        <v>13.86761518342491</v>
+        <v>13.86761518342492</v>
       </c>
       <c r="S18" t="n">
-        <v>4.148724943614327</v>
+        <v>4.14872494361433</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9002782109047385</v>
+        <v>0.9002782109047393</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01469442128789019</v>
+        <v>0.01469442128789021</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1872534996904913</v>
+        <v>0.1872534996904915</v>
       </c>
       <c r="H19" t="n">
-        <v>1.664853842702733</v>
+        <v>1.664853842702735</v>
       </c>
       <c r="I19" t="n">
-        <v>5.631223427055868</v>
+        <v>5.631223427055873</v>
       </c>
       <c r="J19" t="n">
-        <v>13.23882242811774</v>
+        <v>13.23882242811775</v>
       </c>
       <c r="K19" t="n">
-        <v>21.75545205494981</v>
+        <v>21.75545205494982</v>
       </c>
       <c r="L19" t="n">
-        <v>27.83948849034814</v>
+        <v>27.83948849034817</v>
       </c>
       <c r="M19" t="n">
-        <v>29.35283722875583</v>
+        <v>29.35283722875586</v>
       </c>
       <c r="N19" t="n">
-        <v>28.65489236627312</v>
+        <v>28.65489236627314</v>
       </c>
       <c r="O19" t="n">
-        <v>26.46743102897964</v>
+        <v>26.46743102897966</v>
       </c>
       <c r="P19" t="n">
-        <v>22.6474596352936</v>
+        <v>22.64745963529361</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.67992714226469</v>
+        <v>15.6799271422647</v>
       </c>
       <c r="R19" t="n">
-        <v>8.419598267901545</v>
+        <v>8.419598267901552</v>
       </c>
       <c r="S19" t="n">
-        <v>3.263317808242471</v>
+        <v>3.263317808242473</v>
       </c>
       <c r="T19" t="n">
-        <v>0.80008313504119</v>
+        <v>0.8000831350411907</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01021382725584499</v>
+        <v>0.010213827255845</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4174495561852888</v>
+        <v>0.4174495561852891</v>
       </c>
       <c r="H20" t="n">
-        <v>4.27520526728259</v>
+        <v>4.275205267282593</v>
       </c>
       <c r="I20" t="n">
-        <v>16.09372401483336</v>
+        <v>16.09372401483337</v>
       </c>
       <c r="J20" t="n">
-        <v>35.43050926928118</v>
+        <v>35.43050926928122</v>
       </c>
       <c r="K20" t="n">
-        <v>53.10114898260447</v>
+        <v>53.10114898260451</v>
       </c>
       <c r="L20" t="n">
-        <v>65.87667083771001</v>
+        <v>65.87667083771007</v>
       </c>
       <c r="M20" t="n">
-        <v>73.30048938252014</v>
+        <v>73.3004893825202</v>
       </c>
       <c r="N20" t="n">
-        <v>74.4865679340316</v>
+        <v>74.48656793403165</v>
       </c>
       <c r="O20" t="n">
-        <v>70.33555390971412</v>
+        <v>70.33555390971418</v>
       </c>
       <c r="P20" t="n">
-        <v>60.0297679913898</v>
+        <v>60.02976799138985</v>
       </c>
       <c r="Q20" t="n">
-        <v>45.07985576050413</v>
+        <v>45.07985576050417</v>
       </c>
       <c r="R20" t="n">
-        <v>26.22261568372417</v>
+        <v>26.22261568372419</v>
       </c>
       <c r="S20" t="n">
-        <v>9.512631761572278</v>
+        <v>9.512631761572285</v>
       </c>
       <c r="T20" t="n">
-        <v>1.827385432201102</v>
+        <v>1.827385432201104</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03339596449482309</v>
+        <v>0.03339596449482312</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2233552035759309</v>
+        <v>0.2233552035759311</v>
       </c>
       <c r="H21" t="n">
-        <v>2.15714104506228</v>
+        <v>2.157141045062282</v>
       </c>
       <c r="I21" t="n">
-        <v>7.690080473995866</v>
+        <v>7.690080473995872</v>
       </c>
       <c r="J21" t="n">
-        <v>21.10216859749617</v>
+        <v>21.10216859749619</v>
       </c>
       <c r="K21" t="n">
-        <v>36.06696723708354</v>
+        <v>36.06696723708357</v>
       </c>
       <c r="L21" t="n">
-        <v>48.49648839046692</v>
+        <v>48.49648839046696</v>
       </c>
       <c r="M21" t="n">
-        <v>56.5931145200944</v>
+        <v>56.59311452009445</v>
       </c>
       <c r="N21" t="n">
-        <v>58.09096586337336</v>
+        <v>58.0909658633734</v>
       </c>
       <c r="O21" t="n">
-        <v>53.14188477361193</v>
+        <v>53.14188477361198</v>
       </c>
       <c r="P21" t="n">
-        <v>42.6510476021442</v>
+        <v>42.65104760214424</v>
       </c>
       <c r="Q21" t="n">
-        <v>28.51109581085041</v>
+        <v>28.51109581085043</v>
       </c>
       <c r="R21" t="n">
-        <v>13.86761518342491</v>
+        <v>13.86761518342492</v>
       </c>
       <c r="S21" t="n">
-        <v>4.148724943614327</v>
+        <v>4.14872494361433</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9002782109047385</v>
+        <v>0.9002782109047393</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01469442128789019</v>
+        <v>0.01469442128789021</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1872534996904913</v>
+        <v>0.1872534996904915</v>
       </c>
       <c r="H22" t="n">
-        <v>1.664853842702733</v>
+        <v>1.664853842702735</v>
       </c>
       <c r="I22" t="n">
-        <v>5.631223427055868</v>
+        <v>5.631223427055873</v>
       </c>
       <c r="J22" t="n">
-        <v>13.23882242811774</v>
+        <v>13.23882242811775</v>
       </c>
       <c r="K22" t="n">
-        <v>21.75545205494981</v>
+        <v>21.75545205494982</v>
       </c>
       <c r="L22" t="n">
-        <v>27.83948849034814</v>
+        <v>27.83948849034817</v>
       </c>
       <c r="M22" t="n">
-        <v>29.35283722875583</v>
+        <v>29.35283722875586</v>
       </c>
       <c r="N22" t="n">
-        <v>28.65489236627312</v>
+        <v>28.65489236627314</v>
       </c>
       <c r="O22" t="n">
-        <v>26.46743102897964</v>
+        <v>26.46743102897966</v>
       </c>
       <c r="P22" t="n">
-        <v>22.6474596352936</v>
+        <v>22.64745963529361</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.67992714226469</v>
+        <v>15.6799271422647</v>
       </c>
       <c r="R22" t="n">
-        <v>8.419598267901545</v>
+        <v>8.419598267901552</v>
       </c>
       <c r="S22" t="n">
-        <v>3.263317808242471</v>
+        <v>3.263317808242473</v>
       </c>
       <c r="T22" t="n">
-        <v>0.80008313504119</v>
+        <v>0.8000831350411907</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01021382725584499</v>
+        <v>0.010213827255845</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4174495561852888</v>
+        <v>0.4174495561852891</v>
       </c>
       <c r="H23" t="n">
-        <v>4.27520526728259</v>
+        <v>4.275205267282593</v>
       </c>
       <c r="I23" t="n">
-        <v>16.09372401483336</v>
+        <v>16.09372401483337</v>
       </c>
       <c r="J23" t="n">
-        <v>35.43050926928118</v>
+        <v>35.43050926928122</v>
       </c>
       <c r="K23" t="n">
-        <v>53.10114898260447</v>
+        <v>53.10114898260451</v>
       </c>
       <c r="L23" t="n">
-        <v>65.87667083771001</v>
+        <v>65.87667083771007</v>
       </c>
       <c r="M23" t="n">
-        <v>73.30048938252014</v>
+        <v>73.3004893825202</v>
       </c>
       <c r="N23" t="n">
-        <v>74.4865679340316</v>
+        <v>74.48656793403165</v>
       </c>
       <c r="O23" t="n">
-        <v>70.33555390971412</v>
+        <v>70.33555390971418</v>
       </c>
       <c r="P23" t="n">
-        <v>60.0297679913898</v>
+        <v>60.02976799138985</v>
       </c>
       <c r="Q23" t="n">
-        <v>45.07985576050413</v>
+        <v>45.07985576050417</v>
       </c>
       <c r="R23" t="n">
-        <v>26.22261568372417</v>
+        <v>26.22261568372419</v>
       </c>
       <c r="S23" t="n">
-        <v>9.512631761572278</v>
+        <v>9.512631761572285</v>
       </c>
       <c r="T23" t="n">
-        <v>1.827385432201102</v>
+        <v>1.827385432201104</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03339596449482309</v>
+        <v>0.03339596449482312</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2233552035759309</v>
+        <v>0.2233552035759311</v>
       </c>
       <c r="H24" t="n">
-        <v>2.15714104506228</v>
+        <v>2.157141045062282</v>
       </c>
       <c r="I24" t="n">
-        <v>7.690080473995866</v>
+        <v>7.690080473995872</v>
       </c>
       <c r="J24" t="n">
-        <v>21.10216859749617</v>
+        <v>21.10216859749619</v>
       </c>
       <c r="K24" t="n">
-        <v>36.06696723708354</v>
+        <v>36.06696723708357</v>
       </c>
       <c r="L24" t="n">
-        <v>48.49648839046692</v>
+        <v>48.49648839046696</v>
       </c>
       <c r="M24" t="n">
-        <v>56.5931145200944</v>
+        <v>56.59311452009445</v>
       </c>
       <c r="N24" t="n">
-        <v>58.09096586337336</v>
+        <v>58.0909658633734</v>
       </c>
       <c r="O24" t="n">
-        <v>53.14188477361193</v>
+        <v>53.14188477361198</v>
       </c>
       <c r="P24" t="n">
-        <v>42.6510476021442</v>
+        <v>42.65104760214424</v>
       </c>
       <c r="Q24" t="n">
-        <v>28.51109581085041</v>
+        <v>28.51109581085043</v>
       </c>
       <c r="R24" t="n">
-        <v>13.86761518342491</v>
+        <v>13.86761518342492</v>
       </c>
       <c r="S24" t="n">
-        <v>4.148724943614327</v>
+        <v>4.14872494361433</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9002782109047385</v>
+        <v>0.9002782109047393</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01469442128789019</v>
+        <v>0.01469442128789021</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1872534996904913</v>
+        <v>0.1872534996904915</v>
       </c>
       <c r="H25" t="n">
-        <v>1.664853842702733</v>
+        <v>1.664853842702735</v>
       </c>
       <c r="I25" t="n">
-        <v>5.631223427055868</v>
+        <v>5.631223427055873</v>
       </c>
       <c r="J25" t="n">
-        <v>13.23882242811774</v>
+        <v>13.23882242811775</v>
       </c>
       <c r="K25" t="n">
-        <v>21.75545205494981</v>
+        <v>21.75545205494982</v>
       </c>
       <c r="L25" t="n">
-        <v>27.83948849034814</v>
+        <v>27.83948849034817</v>
       </c>
       <c r="M25" t="n">
-        <v>29.35283722875583</v>
+        <v>29.35283722875586</v>
       </c>
       <c r="N25" t="n">
-        <v>28.65489236627312</v>
+        <v>28.65489236627314</v>
       </c>
       <c r="O25" t="n">
-        <v>26.46743102897964</v>
+        <v>26.46743102897966</v>
       </c>
       <c r="P25" t="n">
-        <v>22.6474596352936</v>
+        <v>22.64745963529361</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.67992714226469</v>
+        <v>15.6799271422647</v>
       </c>
       <c r="R25" t="n">
-        <v>8.419598267901545</v>
+        <v>8.419598267901552</v>
       </c>
       <c r="S25" t="n">
-        <v>3.263317808242471</v>
+        <v>3.263317808242473</v>
       </c>
       <c r="T25" t="n">
-        <v>0.80008313504119</v>
+        <v>0.8000831350411907</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01021382725584499</v>
+        <v>0.010213827255845</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4174495561852888</v>
+        <v>0.4174495561852891</v>
       </c>
       <c r="H26" t="n">
-        <v>4.27520526728259</v>
+        <v>4.275205267282593</v>
       </c>
       <c r="I26" t="n">
-        <v>16.09372401483336</v>
+        <v>16.09372401483337</v>
       </c>
       <c r="J26" t="n">
-        <v>35.43050926928118</v>
+        <v>35.43050926928122</v>
       </c>
       <c r="K26" t="n">
-        <v>53.10114898260447</v>
+        <v>53.10114898260451</v>
       </c>
       <c r="L26" t="n">
-        <v>65.87667083771001</v>
+        <v>65.87667083771007</v>
       </c>
       <c r="M26" t="n">
-        <v>73.30048938252014</v>
+        <v>73.3004893825202</v>
       </c>
       <c r="N26" t="n">
-        <v>74.4865679340316</v>
+        <v>74.48656793403165</v>
       </c>
       <c r="O26" t="n">
-        <v>70.33555390971412</v>
+        <v>70.33555390971418</v>
       </c>
       <c r="P26" t="n">
-        <v>60.0297679913898</v>
+        <v>60.02976799138985</v>
       </c>
       <c r="Q26" t="n">
-        <v>45.07985576050413</v>
+        <v>45.07985576050417</v>
       </c>
       <c r="R26" t="n">
-        <v>26.22261568372417</v>
+        <v>26.22261568372419</v>
       </c>
       <c r="S26" t="n">
-        <v>9.512631761572278</v>
+        <v>9.512631761572285</v>
       </c>
       <c r="T26" t="n">
-        <v>1.827385432201102</v>
+        <v>1.827385432201104</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03339596449482309</v>
+        <v>0.03339596449482312</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2233552035759309</v>
+        <v>0.2233552035759311</v>
       </c>
       <c r="H27" t="n">
-        <v>2.15714104506228</v>
+        <v>2.157141045062282</v>
       </c>
       <c r="I27" t="n">
-        <v>7.690080473995866</v>
+        <v>7.690080473995872</v>
       </c>
       <c r="J27" t="n">
-        <v>21.10216859749617</v>
+        <v>21.10216859749619</v>
       </c>
       <c r="K27" t="n">
-        <v>36.06696723708354</v>
+        <v>36.06696723708357</v>
       </c>
       <c r="L27" t="n">
-        <v>48.49648839046692</v>
+        <v>48.49648839046696</v>
       </c>
       <c r="M27" t="n">
-        <v>56.5931145200944</v>
+        <v>56.59311452009445</v>
       </c>
       <c r="N27" t="n">
-        <v>58.09096586337336</v>
+        <v>58.0909658633734</v>
       </c>
       <c r="O27" t="n">
-        <v>53.14188477361193</v>
+        <v>53.14188477361198</v>
       </c>
       <c r="P27" t="n">
-        <v>42.6510476021442</v>
+        <v>42.65104760214424</v>
       </c>
       <c r="Q27" t="n">
-        <v>28.51109581085041</v>
+        <v>28.51109581085043</v>
       </c>
       <c r="R27" t="n">
-        <v>13.86761518342491</v>
+        <v>13.86761518342492</v>
       </c>
       <c r="S27" t="n">
-        <v>4.148724943614327</v>
+        <v>4.14872494361433</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9002782109047385</v>
+        <v>0.9002782109047393</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01469442128789019</v>
+        <v>0.01469442128789021</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1872534996904913</v>
+        <v>0.1872534996904915</v>
       </c>
       <c r="H28" t="n">
-        <v>1.664853842702733</v>
+        <v>1.664853842702735</v>
       </c>
       <c r="I28" t="n">
-        <v>5.631223427055868</v>
+        <v>5.631223427055873</v>
       </c>
       <c r="J28" t="n">
-        <v>13.23882242811774</v>
+        <v>13.23882242811775</v>
       </c>
       <c r="K28" t="n">
-        <v>21.75545205494981</v>
+        <v>21.75545205494982</v>
       </c>
       <c r="L28" t="n">
-        <v>27.83948849034814</v>
+        <v>27.83948849034817</v>
       </c>
       <c r="M28" t="n">
-        <v>29.35283722875583</v>
+        <v>29.35283722875586</v>
       </c>
       <c r="N28" t="n">
-        <v>28.65489236627312</v>
+        <v>28.65489236627314</v>
       </c>
       <c r="O28" t="n">
-        <v>26.46743102897964</v>
+        <v>26.46743102897966</v>
       </c>
       <c r="P28" t="n">
-        <v>22.6474596352936</v>
+        <v>22.64745963529361</v>
       </c>
       <c r="Q28" t="n">
-        <v>15.67992714226469</v>
+        <v>15.6799271422647</v>
       </c>
       <c r="R28" t="n">
-        <v>8.419598267901545</v>
+        <v>8.419598267901552</v>
       </c>
       <c r="S28" t="n">
-        <v>3.263317808242471</v>
+        <v>3.263317808242473</v>
       </c>
       <c r="T28" t="n">
-        <v>0.80008313504119</v>
+        <v>0.8000831350411907</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01021382725584499</v>
+        <v>0.010213827255845</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4174495561852888</v>
+        <v>0.4174495561852891</v>
       </c>
       <c r="H29" t="n">
-        <v>4.27520526728259</v>
+        <v>4.275205267282593</v>
       </c>
       <c r="I29" t="n">
-        <v>16.09372401483336</v>
+        <v>16.09372401483337</v>
       </c>
       <c r="J29" t="n">
-        <v>35.43050926928118</v>
+        <v>35.43050926928122</v>
       </c>
       <c r="K29" t="n">
-        <v>53.10114898260447</v>
+        <v>53.10114898260451</v>
       </c>
       <c r="L29" t="n">
-        <v>65.87667083771001</v>
+        <v>65.87667083771007</v>
       </c>
       <c r="M29" t="n">
-        <v>73.30048938252014</v>
+        <v>73.3004893825202</v>
       </c>
       <c r="N29" t="n">
-        <v>74.4865679340316</v>
+        <v>74.48656793403165</v>
       </c>
       <c r="O29" t="n">
-        <v>70.33555390971412</v>
+        <v>70.33555390971418</v>
       </c>
       <c r="P29" t="n">
-        <v>60.0297679913898</v>
+        <v>60.02976799138985</v>
       </c>
       <c r="Q29" t="n">
-        <v>45.07985576050413</v>
+        <v>45.07985576050417</v>
       </c>
       <c r="R29" t="n">
-        <v>26.22261568372417</v>
+        <v>26.22261568372419</v>
       </c>
       <c r="S29" t="n">
-        <v>9.512631761572278</v>
+        <v>9.512631761572285</v>
       </c>
       <c r="T29" t="n">
-        <v>1.827385432201102</v>
+        <v>1.827385432201104</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03339596449482309</v>
+        <v>0.03339596449482312</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2233552035759309</v>
+        <v>0.2233552035759311</v>
       </c>
       <c r="H30" t="n">
-        <v>2.15714104506228</v>
+        <v>2.157141045062282</v>
       </c>
       <c r="I30" t="n">
-        <v>7.690080473995866</v>
+        <v>7.690080473995872</v>
       </c>
       <c r="J30" t="n">
-        <v>21.10216859749617</v>
+        <v>21.10216859749619</v>
       </c>
       <c r="K30" t="n">
-        <v>36.06696723708354</v>
+        <v>36.06696723708357</v>
       </c>
       <c r="L30" t="n">
-        <v>48.49648839046692</v>
+        <v>48.49648839046696</v>
       </c>
       <c r="M30" t="n">
-        <v>56.5931145200944</v>
+        <v>56.59311452009445</v>
       </c>
       <c r="N30" t="n">
-        <v>58.09096586337336</v>
+        <v>58.0909658633734</v>
       </c>
       <c r="O30" t="n">
-        <v>53.14188477361193</v>
+        <v>53.14188477361198</v>
       </c>
       <c r="P30" t="n">
-        <v>42.6510476021442</v>
+        <v>42.65104760214424</v>
       </c>
       <c r="Q30" t="n">
-        <v>28.51109581085041</v>
+        <v>28.51109581085043</v>
       </c>
       <c r="R30" t="n">
-        <v>13.86761518342491</v>
+        <v>13.86761518342492</v>
       </c>
       <c r="S30" t="n">
-        <v>4.148724943614327</v>
+        <v>4.14872494361433</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9002782109047385</v>
+        <v>0.9002782109047393</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01469442128789019</v>
+        <v>0.01469442128789021</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1872534996904913</v>
+        <v>0.1872534996904915</v>
       </c>
       <c r="H31" t="n">
-        <v>1.664853842702733</v>
+        <v>1.664853842702735</v>
       </c>
       <c r="I31" t="n">
-        <v>5.631223427055868</v>
+        <v>5.631223427055873</v>
       </c>
       <c r="J31" t="n">
-        <v>13.23882242811774</v>
+        <v>13.23882242811775</v>
       </c>
       <c r="K31" t="n">
-        <v>21.75545205494981</v>
+        <v>21.75545205494982</v>
       </c>
       <c r="L31" t="n">
-        <v>27.83948849034814</v>
+        <v>27.83948849034817</v>
       </c>
       <c r="M31" t="n">
-        <v>29.35283722875583</v>
+        <v>29.35283722875586</v>
       </c>
       <c r="N31" t="n">
-        <v>28.65489236627312</v>
+        <v>28.65489236627314</v>
       </c>
       <c r="O31" t="n">
-        <v>26.46743102897964</v>
+        <v>26.46743102897966</v>
       </c>
       <c r="P31" t="n">
-        <v>22.6474596352936</v>
+        <v>22.64745963529361</v>
       </c>
       <c r="Q31" t="n">
-        <v>15.67992714226469</v>
+        <v>15.6799271422647</v>
       </c>
       <c r="R31" t="n">
-        <v>8.419598267901545</v>
+        <v>8.419598267901552</v>
       </c>
       <c r="S31" t="n">
-        <v>3.263317808242471</v>
+        <v>3.263317808242473</v>
       </c>
       <c r="T31" t="n">
-        <v>0.80008313504119</v>
+        <v>0.8000831350411907</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01021382725584499</v>
+        <v>0.010213827255845</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -35407,25 +35407,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>118.5115880530825</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="L11" t="n">
-        <v>84.28147028187946</v>
+        <v>48.8861116030175</v>
       </c>
       <c r="M11" t="n">
-        <v>122.0492982736043</v>
+        <v>83.56285454860296</v>
       </c>
       <c r="N11" t="n">
-        <v>122.0492982736043</v>
+        <v>78.00343736515646</v>
       </c>
       <c r="O11" t="n">
-        <v>36.37425343351529</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>28.71490825170097</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>33.83647831747471</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>119.764688815662</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="N12" t="n">
-        <v>122.0492982736043</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="O12" t="n">
-        <v>122.0492982736043</v>
+        <v>33.83647831747525</v>
       </c>
       <c r="P12" t="n">
-        <v>85.56614463534059</v>
+        <v>85.56614463534063</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35541,7 +35541,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>16.76555500988647</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -35550,22 +35550,22 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>52.70633446262957</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>14.65880953282605</v>
       </c>
       <c r="H13" t="n">
-        <v>28.60087262311762</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>29.67425663193102</v>
       </c>
       <c r="J13" t="n">
-        <v>74.48316832403398</v>
+        <v>74.48316832403378</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -35577,16 +35577,16 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>122.0492982736043</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>30.72332259852795</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>122.0492982736043</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>67.56853785797828</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,22 +35650,22 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>48.88611160301744</v>
+        <v>48.8861116030175</v>
       </c>
       <c r="M14" t="n">
-        <v>122.0492982736043</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="N14" t="n">
-        <v>78.0034373651564</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="O14" t="n">
-        <v>122.0492982736043</v>
+        <v>36.37425343351535</v>
       </c>
       <c r="P14" t="n">
-        <v>6.448259064154569</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="Q14" t="n">
-        <v>105.8295037361488</v>
+        <v>31.85764845834036</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>33.83647831747471</v>
+        <v>39.27388527251657</v>
       </c>
       <c r="L15" t="n">
         <v>119.764688815662</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="N15" t="n">
-        <v>122.0492982736043</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>122.0492982736043</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="P15" t="n">
-        <v>85.56614463534059</v>
+        <v>80.12873768029932</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35787,16 +35787,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>52.70633446262957</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>55.45559345640791</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>25.64543562664305</v>
       </c>
       <c r="H16" t="n">
-        <v>11.75806527207525</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -35805,22 +35805,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>122.0492982736043</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="N16" t="n">
-        <v>122.0492982736043</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="P16" t="n">
-        <v>122.0492982736043</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35887,19 +35887,19 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>48.88611160301744</v>
+        <v>48.8861116030175</v>
       </c>
       <c r="M17" t="n">
-        <v>83.5628545486029</v>
+        <v>83.56285454860296</v>
       </c>
       <c r="N17" t="n">
-        <v>78.0034373651564</v>
+        <v>78.00343736515646</v>
       </c>
       <c r="O17" t="n">
-        <v>122.0492982736043</v>
+        <v>36.37425343351535</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>44.37106813136457</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35908,7 +35908,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>52.30333188393973</v>
+        <v>93.60730859266529</v>
       </c>
       <c r="T17" t="n">
         <v>98.46087464136507</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>39.27388527251657</v>
       </c>
       <c r="L18" t="n">
         <v>119.764688815662</v>
       </c>
       <c r="M18" t="n">
-        <v>122.0492982736043</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="N18" t="n">
-        <v>33.83647831747468</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="O18" t="n">
-        <v>122.0492982736043</v>
+        <v>80.12873768029932</v>
       </c>
       <c r="P18" t="n">
-        <v>85.56614463534059</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36121,22 +36121,22 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="L20" t="n">
-        <v>48.88611160301744</v>
+        <v>48.8861116030175</v>
       </c>
       <c r="M20" t="n">
-        <v>122.0492982736044</v>
+        <v>83.56285454860296</v>
       </c>
       <c r="N20" t="n">
-        <v>78.0034373651564</v>
+        <v>78.00343736515646</v>
       </c>
       <c r="O20" t="n">
-        <v>36.37425343351529</v>
+        <v>36.37425343351535</v>
       </c>
       <c r="P20" t="n">
-        <v>28.76183244858724</v>
+        <v>114.3899530917903</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36148,10 +36148,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>98.46087464136512</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>70.7301005504401</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>39.27388527251654</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>119.764688815662</v>
       </c>
       <c r="M21" t="n">
-        <v>114.32728186062</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="N21" t="n">
-        <v>122.0492982736044</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="O21" t="n">
-        <v>122.0492982736044</v>
+        <v>33.83647831747525</v>
       </c>
       <c r="P21" t="n">
-        <v>85.56614463534059</v>
+        <v>85.56614463534063</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36355,40 +36355,40 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>67.24827617358801</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>48.88611160301744</v>
+        <v>48.8861116030175</v>
       </c>
       <c r="M23" t="n">
-        <v>83.5628545486029</v>
+        <v>83.56285454860296</v>
       </c>
       <c r="N23" t="n">
-        <v>78.0034373651564</v>
+        <v>78.00343736515646</v>
       </c>
       <c r="O23" t="n">
-        <v>36.37425343351529</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>28.71490825170039</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>98.46087464136512</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>70.7301005504401</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>33.83647831747435</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>119.764688815662</v>
+        <v>31.55186885953234</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="N24" t="n">
-        <v>122.0492982736042</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="O24" t="n">
-        <v>122.0492982736042</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="P24" t="n">
-        <v>85.56614463534059</v>
+        <v>85.56614463534063</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>137.046269626368</v>
+        <v>137.0462696263681</v>
       </c>
       <c r="K26" t="n">
         <v>207.5549153019833</v>
@@ -36601,22 +36601,22 @@
         <v>261.8032688511578</v>
       </c>
       <c r="M26" t="n">
-        <v>296.4800117967432</v>
+        <v>296.4800117967433</v>
       </c>
       <c r="N26" t="n">
-        <v>290.9205946132971</v>
+        <v>290.9205946132959</v>
       </c>
       <c r="O26" t="n">
-        <v>249.2914106816556</v>
+        <v>249.2914106816557</v>
       </c>
       <c r="P26" t="n">
-        <v>199.368233313222</v>
+        <v>199.3682333132221</v>
       </c>
       <c r="Q26" t="n">
-        <v>124.3641853094343</v>
+        <v>124.3641853094344</v>
       </c>
       <c r="R26" t="n">
-        <v>18.70965687631593</v>
+        <v>18.70965687631598</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,13 +36674,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>39.27388527251654</v>
+        <v>39.27388527251657</v>
       </c>
       <c r="L27" t="n">
         <v>119.764688815662</v>
       </c>
       <c r="M27" t="n">
-        <v>184.966474445232</v>
+        <v>184.9664744452321</v>
       </c>
       <c r="N27" t="n">
         <v>208.4679356963294</v>
@@ -36689,7 +36689,7 @@
         <v>134.3972494427105</v>
       </c>
       <c r="P27" t="n">
-        <v>85.56614463534059</v>
+        <v>85.56614463534063</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36741,7 +36741,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>44.22119561988587</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -36753,7 +36753,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>16.17871011009958</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -36762,10 +36762,10 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>197.1335658820402</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>39.38495101890917</v>
+        <v>176.1186111709637</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>137.046269626368</v>
+        <v>137.0462696263681</v>
       </c>
       <c r="K29" t="n">
         <v>207.5549153019833</v>
@@ -36838,22 +36838,22 @@
         <v>261.8032688511578</v>
       </c>
       <c r="M29" t="n">
-        <v>296.4800117967432</v>
+        <v>296.4800117967433</v>
       </c>
       <c r="N29" t="n">
-        <v>290.9205946132967</v>
+        <v>290.9205946132968</v>
       </c>
       <c r="O29" t="n">
-        <v>249.2914106816556</v>
+        <v>249.2914106816557</v>
       </c>
       <c r="P29" t="n">
-        <v>199.368233313222</v>
+        <v>199.3682333132221</v>
       </c>
       <c r="Q29" t="n">
-        <v>124.3641853094343</v>
+        <v>124.3641853094344</v>
       </c>
       <c r="R29" t="n">
-        <v>18.70965687631593</v>
+        <v>18.70965687631599</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,13 +36911,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>39.27388527251654</v>
+        <v>39.27388527251657</v>
       </c>
       <c r="L30" t="n">
         <v>119.764688815662</v>
       </c>
       <c r="M30" t="n">
-        <v>184.966474445232</v>
+        <v>184.9664744452321</v>
       </c>
       <c r="N30" t="n">
         <v>208.4679356963294</v>
@@ -36926,7 +36926,7 @@
         <v>134.3972494427105</v>
       </c>
       <c r="P30" t="n">
-        <v>85.56614463534059</v>
+        <v>85.56614463534063</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36972,7 +36972,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>71.24101603591532</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -36996,22 +36996,22 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>188.4547983301388</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>38.3600990569452</v>
       </c>
       <c r="O31" t="n">
-        <v>10.25679589406157</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>155.0207049709724</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>9.703619513865124</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37078,7 +37078,7 @@
         <v>296.4800117967433</v>
       </c>
       <c r="N32" t="n">
-        <v>290.9205946132968</v>
+        <v>290.9205946132959</v>
       </c>
       <c r="O32" t="n">
         <v>249.2914106816557</v>
@@ -37087,7 +37087,7 @@
         <v>199.368233313222</v>
       </c>
       <c r="Q32" t="n">
-        <v>124.364185309434</v>
+        <v>124.3641853094343</v>
       </c>
       <c r="R32" t="n">
         <v>18.70965687631595</v>
@@ -37206,13 +37206,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>67.73450699742961</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>73.99027502969366</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -37221,10 +37221,10 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>48.20893820521677</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>93.01784989731954</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -37236,13 +37236,13 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>27.55722180098345</v>
+        <v>7.507536900283213</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>155.0207049709725</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37300,40 +37300,40 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>7.497149376212306</v>
       </c>
       <c r="J35" t="n">
-        <v>172.2223462900928</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>242.7309919657081</v>
+        <v>242.7309919657082</v>
       </c>
       <c r="L35" t="n">
-        <v>48.88611160301748</v>
+        <v>296.9793455148827</v>
       </c>
       <c r="M35" t="n">
-        <v>328.8902835902924</v>
+        <v>132.6731471344922</v>
       </c>
       <c r="N35" t="n">
         <v>78.00343736515646</v>
       </c>
       <c r="O35" t="n">
-        <v>284.4674873453804</v>
+        <v>284.4674873453806</v>
       </c>
       <c r="P35" t="n">
-        <v>72.36548745942437</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>159.5402619731593</v>
       </c>
       <c r="R35" t="n">
-        <v>53.88573354004073</v>
+        <v>53.88573354004087</v>
       </c>
       <c r="S35" t="n">
-        <v>20.82075889537838</v>
+        <v>20.82075889537852</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>25.6743249440783</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37443,7 +37443,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>60.10907246091414</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>84.46131383592918</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -37491,7 +37491,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>24.35224137501534</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -37537,40 +37537,40 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>7.497149376212164</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>172.2223462900928</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>48.88611160301748</v>
+        <v>296.9793455148827</v>
       </c>
       <c r="M38" t="n">
-        <v>83.56285454860294</v>
+        <v>328.890283590292</v>
       </c>
       <c r="N38" t="n">
-        <v>326.0966712770215</v>
+        <v>145.5633661861957</v>
       </c>
       <c r="O38" t="n">
-        <v>284.4674873453804</v>
+        <v>36.37425343351535</v>
       </c>
       <c r="P38" t="n">
-        <v>234.5443099769469</v>
+        <v>234.544309976947</v>
       </c>
       <c r="Q38" t="n">
-        <v>98.50062379776047</v>
+        <v>159.5402619731593</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>53.88573354004087</v>
       </c>
       <c r="S38" t="n">
-        <v>20.82075889537838</v>
+        <v>20.82075889537852</v>
       </c>
       <c r="T38" t="n">
-        <v>25.67432494407816</v>
+        <v>25.6743249440783</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37710,7 +37710,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>81.47709510851384</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>84.46131383592947</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37734,7 +37734,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>2.984218727415339</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -37786,28 +37786,28 @@
         <v>289.4821961386704</v>
       </c>
       <c r="M41" t="n">
-        <v>83.56285454860294</v>
+        <v>324.1589390842558</v>
       </c>
       <c r="N41" t="n">
-        <v>318.5995219008093</v>
+        <v>78.00343736515646</v>
       </c>
       <c r="O41" t="n">
-        <v>36.37425343351535</v>
+        <v>57.23715231309905</v>
       </c>
       <c r="P41" t="n">
-        <v>219.6986508843556</v>
+        <v>227.0471606007347</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>46.38858416382855</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>18.17717556786598</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>99.12269616803157</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>104.3646190101172</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -37962,7 +37962,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>5.241922842085582</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -38014,19 +38014,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>164.7251969138807</v>
       </c>
       <c r="K44" t="n">
-        <v>209.0666321030183</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>289.4821961386704</v>
       </c>
       <c r="M44" t="n">
-        <v>324.1589390842559</v>
+        <v>279.9474023346876</v>
       </c>
       <c r="N44" t="n">
-        <v>78.00343736515647</v>
+        <v>318.5995219008094</v>
       </c>
       <c r="O44" t="n">
         <v>36.37425343351536</v>
@@ -38035,7 +38035,7 @@
         <v>227.0471606007347</v>
       </c>
       <c r="Q44" t="n">
-        <v>152.043112596947</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>46.38858416382856</v>
@@ -38166,13 +38166,13 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>74.81448148391578</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>29.55013752620139</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>104.3646190101172</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
